--- a/data/nzd0181/nzd0181.xlsx
+++ b/data/nzd0181/nzd0181.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z403"/>
+  <dimension ref="A1:Z409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30148,6 +30148,484 @@
         </is>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>361.7122222222222</v>
+      </c>
+      <c r="C404" t="n">
+        <v>392.0766666666667</v>
+      </c>
+      <c r="D404" t="n">
+        <v>381.6670588235294</v>
+      </c>
+      <c r="E404" t="n">
+        <v>382.8911111111111</v>
+      </c>
+      <c r="F404" t="n">
+        <v>389.4304347826087</v>
+      </c>
+      <c r="G404" t="n">
+        <v>383.9204347826087</v>
+      </c>
+      <c r="H404" t="n">
+        <v>384.825</v>
+      </c>
+      <c r="I404" t="n">
+        <v>377.7695238095238</v>
+      </c>
+      <c r="J404" t="n">
+        <v>386.4245454545455</v>
+      </c>
+      <c r="K404" t="n">
+        <v>392.0815789473684</v>
+      </c>
+      <c r="L404" t="n">
+        <v>394.3795238095238</v>
+      </c>
+      <c r="M404" t="n">
+        <v>389.8104347826087</v>
+      </c>
+      <c r="N404" t="n">
+        <v>394.8340740740741</v>
+      </c>
+      <c r="O404" t="n">
+        <v>393.3045454545455</v>
+      </c>
+      <c r="P404" t="n">
+        <v>393.92</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>403.5770588235294</v>
+      </c>
+      <c r="R404" t="n">
+        <v>382.5811111111111</v>
+      </c>
+      <c r="S404" t="n">
+        <v>396.8311111111111</v>
+      </c>
+      <c r="T404" t="n">
+        <v>383.6733333333333</v>
+      </c>
+      <c r="U404" t="n">
+        <v>371.9153846153847</v>
+      </c>
+      <c r="V404" t="n">
+        <v>371.7133333333333</v>
+      </c>
+      <c r="W404" t="n">
+        <v>382.14</v>
+      </c>
+      <c r="X404" t="n">
+        <v>388.6311111111111</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>380.1890909090909</v>
+      </c>
+      <c r="Z404" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>358.7111111111111</v>
+      </c>
+      <c r="C405" t="n">
+        <v>379.8033333333333</v>
+      </c>
+      <c r="D405" t="n">
+        <v>381.0464705882353</v>
+      </c>
+      <c r="E405" t="n">
+        <v>383.4955555555555</v>
+      </c>
+      <c r="F405" t="n">
+        <v>380.6465217391304</v>
+      </c>
+      <c r="G405" t="n">
+        <v>379.4865217391304</v>
+      </c>
+      <c r="H405" t="n">
+        <v>378.885</v>
+      </c>
+      <c r="I405" t="n">
+        <v>384.9961904761905</v>
+      </c>
+      <c r="J405" t="n">
+        <v>394.3572727272728</v>
+      </c>
+      <c r="K405" t="n">
+        <v>396.2147368421053</v>
+      </c>
+      <c r="L405" t="n">
+        <v>399.3361904761905</v>
+      </c>
+      <c r="M405" t="n">
+        <v>392.2365217391304</v>
+      </c>
+      <c r="N405" t="n">
+        <v>392.6437037037037</v>
+      </c>
+      <c r="O405" t="n">
+        <v>388.8072727272727</v>
+      </c>
+      <c r="P405" t="n">
+        <v>389.25</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>388.8764705882353</v>
+      </c>
+      <c r="R405" t="n">
+        <v>383.5455555555556</v>
+      </c>
+      <c r="S405" t="n">
+        <v>385.2355555555556</v>
+      </c>
+      <c r="T405" t="n">
+        <v>383.8066666666667</v>
+      </c>
+      <c r="U405" t="n">
+        <v>369.7569230769231</v>
+      </c>
+      <c r="V405" t="n">
+        <v>375.3666666666667</v>
+      </c>
+      <c r="W405" t="n">
+        <v>386.98</v>
+      </c>
+      <c r="X405" t="n">
+        <v>389.4155555555556</v>
+      </c>
+      <c r="Y405" t="n">
+        <v>381.5745454545454</v>
+      </c>
+      <c r="Z405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>351.9355555555555</v>
+      </c>
+      <c r="C406" t="n">
+        <v>378.5566666666667</v>
+      </c>
+      <c r="D406" t="n">
+        <v>374.9670588235294</v>
+      </c>
+      <c r="E406" t="n">
+        <v>376.5077777777778</v>
+      </c>
+      <c r="F406" t="n">
+        <v>378.2508695652174</v>
+      </c>
+      <c r="G406" t="n">
+        <v>378.0208695652174</v>
+      </c>
+      <c r="H406" t="n">
+        <v>380.78</v>
+      </c>
+      <c r="I406" t="n">
+        <v>389.8552380952381</v>
+      </c>
+      <c r="J406" t="n">
+        <v>384.4618181818182</v>
+      </c>
+      <c r="K406" t="n">
+        <v>385.4247368421052</v>
+      </c>
+      <c r="L406" t="n">
+        <v>389.3352380952381</v>
+      </c>
+      <c r="M406" t="n">
+        <v>386.2908695652173</v>
+      </c>
+      <c r="N406" t="n">
+        <v>386.3185185185185</v>
+      </c>
+      <c r="O406" t="n">
+        <v>380.2718181818182</v>
+      </c>
+      <c r="P406" t="n">
+        <v>385.44</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>386.6470588235294</v>
+      </c>
+      <c r="R406" t="n">
+        <v>376.1077777777778</v>
+      </c>
+      <c r="S406" t="n">
+        <v>377.7877777777778</v>
+      </c>
+      <c r="T406" t="n">
+        <v>367.5833333333333</v>
+      </c>
+      <c r="U406" t="n">
+        <v>359.4330769230769</v>
+      </c>
+      <c r="V406" t="n">
+        <v>355.3133333333333</v>
+      </c>
+      <c r="W406" t="n">
+        <v>383.43</v>
+      </c>
+      <c r="X406" t="n">
+        <v>384.7577777777778</v>
+      </c>
+      <c r="Y406" t="n">
+        <v>375.9436363636364</v>
+      </c>
+      <c r="Z406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>374.0977777777778</v>
+      </c>
+      <c r="C407" t="n">
+        <v>396.1433333333333</v>
+      </c>
+      <c r="D407" t="n">
+        <v>397.4964705882353</v>
+      </c>
+      <c r="E407" t="n">
+        <v>398.6588888888889</v>
+      </c>
+      <c r="F407" t="n">
+        <v>391.3460869565217</v>
+      </c>
+      <c r="G407" t="n">
+        <v>401.2860869565217</v>
+      </c>
+      <c r="H407" t="n">
+        <v>385.22</v>
+      </c>
+      <c r="I407" t="n">
+        <v>398.0704761904762</v>
+      </c>
+      <c r="J407" t="n">
+        <v>401.27</v>
+      </c>
+      <c r="K407" t="n">
+        <v>404.7215789473684</v>
+      </c>
+      <c r="L407" t="n">
+        <v>409.4204761904762</v>
+      </c>
+      <c r="M407" t="n">
+        <v>402.2360869565218</v>
+      </c>
+      <c r="N407" t="n">
+        <v>406.5292592592592</v>
+      </c>
+      <c r="O407" t="n">
+        <v>400.63</v>
+      </c>
+      <c r="P407" t="n">
+        <v>404.33</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>399.7964705882353</v>
+      </c>
+      <c r="R407" t="n">
+        <v>388.5188888888889</v>
+      </c>
+      <c r="S407" t="n">
+        <v>393.7588888888889</v>
+      </c>
+      <c r="T407" t="n">
+        <v>400.2466666666666</v>
+      </c>
+      <c r="U407" t="n">
+        <v>391.0192307692308</v>
+      </c>
+      <c r="V407" t="inlineStr"/>
+      <c r="W407" t="inlineStr"/>
+      <c r="X407" t="inlineStr"/>
+      <c r="Y407" t="inlineStr"/>
+      <c r="Z407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>363.2288888888889</v>
+      </c>
+      <c r="C408" t="n">
+        <v>386.7466666666666</v>
+      </c>
+      <c r="D408" t="n">
+        <v>392.0670588235294</v>
+      </c>
+      <c r="E408" t="n">
+        <v>386.2644444444445</v>
+      </c>
+      <c r="F408" t="n">
+        <v>378.835652173913</v>
+      </c>
+      <c r="G408" t="n">
+        <v>374.7056521739131</v>
+      </c>
+      <c r="H408" t="n">
+        <v>378.2875</v>
+      </c>
+      <c r="I408" t="n">
+        <v>390.812380952381</v>
+      </c>
+      <c r="J408" t="n">
+        <v>397.1981818181818</v>
+      </c>
+      <c r="K408" t="n">
+        <v>396.9831578947369</v>
+      </c>
+      <c r="L408" t="n">
+        <v>400.252380952381</v>
+      </c>
+      <c r="M408" t="n">
+        <v>397.5056521739131</v>
+      </c>
+      <c r="N408" t="n">
+        <v>398.0562962962963</v>
+      </c>
+      <c r="O408" t="n">
+        <v>393.5581818181818</v>
+      </c>
+      <c r="P408" t="n">
+        <v>394.945</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>391.2870588235294</v>
+      </c>
+      <c r="R408" t="n">
+        <v>387.5344444444444</v>
+      </c>
+      <c r="S408" t="n">
+        <v>389.6544444444445</v>
+      </c>
+      <c r="T408" t="n">
+        <v>386.0833333333333</v>
+      </c>
+      <c r="U408" t="n">
+        <v>371.5392307692308</v>
+      </c>
+      <c r="V408" t="n">
+        <v>377.3533333333334</v>
+      </c>
+      <c r="W408" t="n">
+        <v>390.125</v>
+      </c>
+      <c r="X408" t="n">
+        <v>388.3744444444445</v>
+      </c>
+      <c r="Y408" t="n">
+        <v>384.8163636363636</v>
+      </c>
+      <c r="Z408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>349.7066666666667</v>
+      </c>
+      <c r="C409" t="n">
+        <v>380.48</v>
+      </c>
+      <c r="D409" t="n">
+        <v>388.0688235294118</v>
+      </c>
+      <c r="E409" t="n">
+        <v>385.6833333333333</v>
+      </c>
+      <c r="F409" t="n">
+        <v>383.7478260869565</v>
+      </c>
+      <c r="G409" t="n">
+        <v>385.2378260869565</v>
+      </c>
+      <c r="H409" t="n">
+        <v>388.315</v>
+      </c>
+      <c r="I409" t="n">
+        <v>389.99</v>
+      </c>
+      <c r="J409" t="n">
+        <v>393.5518181818182</v>
+      </c>
+      <c r="K409" t="n">
+        <v>394.608947368421</v>
+      </c>
+      <c r="L409" t="n">
+        <v>396.49</v>
+      </c>
+      <c r="M409" t="n">
+        <v>394.3078260869565</v>
+      </c>
+      <c r="N409" t="n">
+        <v>397.0688888888889</v>
+      </c>
+      <c r="O409" t="n">
+        <v>390.4918181818182</v>
+      </c>
+      <c r="P409" t="n">
+        <v>395.41</v>
+      </c>
+      <c r="Q409" t="inlineStr"/>
+      <c r="R409" t="inlineStr"/>
+      <c r="S409" t="inlineStr"/>
+      <c r="T409" t="inlineStr"/>
+      <c r="U409" t="inlineStr"/>
+      <c r="V409" t="inlineStr"/>
+      <c r="W409" t="inlineStr"/>
+      <c r="X409" t="inlineStr"/>
+      <c r="Y409" t="inlineStr"/>
+      <c r="Z409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30159,7 +30637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B433"/>
+  <dimension ref="A1:B439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34497,6 +34975,66 @@
       </c>
       <c r="B433" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -34665,28 +35203,28 @@
         <v>0.0485</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7696661744337888</v>
+        <v>0.7408548324396532</v>
       </c>
       <c r="J2" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K2" t="n">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1391125615628668</v>
+        <v>0.1336296214513932</v>
       </c>
       <c r="M2" t="n">
-        <v>10.34095922651463</v>
+        <v>10.32453512778161</v>
       </c>
       <c r="N2" t="n">
-        <v>190.7003575856623</v>
+        <v>189.2925672639727</v>
       </c>
       <c r="O2" t="n">
-        <v>13.80943002392431</v>
+        <v>13.75836353873427</v>
       </c>
       <c r="P2" t="n">
-        <v>348.0410527686699</v>
+        <v>348.3184739923793</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -34742,28 +35280,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7648923897916061</v>
+        <v>0.7649009483133467</v>
       </c>
       <c r="J3" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1794353182139644</v>
+        <v>0.1849397953510359</v>
       </c>
       <c r="M3" t="n">
-        <v>9.266074230692951</v>
+        <v>9.202822619396759</v>
       </c>
       <c r="N3" t="n">
-        <v>135.6277334712332</v>
+        <v>133.8387451607744</v>
       </c>
       <c r="O3" t="n">
-        <v>11.64593205678417</v>
+        <v>11.56886965786954</v>
       </c>
       <c r="P3" t="n">
-        <v>366.3501931442685</v>
+        <v>366.3502549149026</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -34819,28 +35357,28 @@
         <v>0.0989</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8089562411558766</v>
+        <v>0.8047876581149722</v>
       </c>
       <c r="J4" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K4" t="n">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1695085626535574</v>
+        <v>0.1731285055101035</v>
       </c>
       <c r="M4" t="n">
-        <v>10.07535591423971</v>
+        <v>10.00949202419066</v>
       </c>
       <c r="N4" t="n">
-        <v>161.7588773186513</v>
+        <v>159.7664442953126</v>
       </c>
       <c r="O4" t="n">
-        <v>12.71844634059724</v>
+        <v>12.63987516929311</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5923689000588</v>
+        <v>366.6326760712992</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -34896,28 +35434,28 @@
         <v>0.1092</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6840208752705887</v>
+        <v>0.6770811050700676</v>
       </c>
       <c r="J5" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K5" t="n">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1354329156797427</v>
+        <v>0.1372797616863576</v>
       </c>
       <c r="M5" t="n">
-        <v>9.961737697311779</v>
+        <v>9.879719557676264</v>
       </c>
       <c r="N5" t="n">
-        <v>150.6929310888915</v>
+        <v>148.721016087222</v>
       </c>
       <c r="O5" t="n">
-        <v>12.27570491209737</v>
+        <v>12.19512263518584</v>
       </c>
       <c r="P5" t="n">
-        <v>370.1517737850097</v>
+        <v>370.2195866412256</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -34973,28 +35511,28 @@
         <v>0.1499</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7227449310148388</v>
+        <v>0.7069115960155111</v>
       </c>
       <c r="J6" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K6" t="n">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L6" t="n">
-        <v>0.162220951411242</v>
+        <v>0.160850034649374</v>
       </c>
       <c r="M6" t="n">
-        <v>9.194560978494799</v>
+        <v>9.129760894521844</v>
       </c>
       <c r="N6" t="n">
-        <v>136.0203409809934</v>
+        <v>134.2993432023249</v>
       </c>
       <c r="O6" t="n">
-        <v>11.66277586944864</v>
+        <v>11.58875934698468</v>
       </c>
       <c r="P6" t="n">
-        <v>369.7513626381661</v>
+        <v>369.9075678883594</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -35050,28 +35588,28 @@
         <v>0.1673</v>
       </c>
       <c r="I7" t="n">
-        <v>0.797129235393831</v>
+        <v>0.7843678546651678</v>
       </c>
       <c r="J7" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K7" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1731826824982505</v>
+        <v>0.1730451767955281</v>
       </c>
       <c r="M7" t="n">
-        <v>10.14641828827474</v>
+        <v>10.1039713179845</v>
       </c>
       <c r="N7" t="n">
-        <v>152.7441820174986</v>
+        <v>151.4635616764624</v>
       </c>
       <c r="O7" t="n">
-        <v>12.3589717216886</v>
+        <v>12.30705333036557</v>
       </c>
       <c r="P7" t="n">
-        <v>367.0380709507075</v>
+        <v>367.1628263267779</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -35127,28 +35665,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9378822877953145</v>
+        <v>0.9204647142030276</v>
       </c>
       <c r="J8" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K8" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2255216935285966</v>
+        <v>0.2255567035085999</v>
       </c>
       <c r="M8" t="n">
-        <v>9.712458166679818</v>
+        <v>9.610738467934134</v>
       </c>
       <c r="N8" t="n">
-        <v>153.7050986589479</v>
+        <v>151.4584508264151</v>
       </c>
       <c r="O8" t="n">
-        <v>12.39778603860173</v>
+        <v>12.3068456895508</v>
       </c>
       <c r="P8" t="n">
-        <v>363.6871923311794</v>
+        <v>363.8558549765435</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -35204,28 +35742,28 @@
         <v>0.1342</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7599212458359843</v>
+        <v>0.762991942806814</v>
       </c>
       <c r="J9" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K9" t="n">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1620738548653176</v>
+        <v>0.168174161118812</v>
       </c>
       <c r="M9" t="n">
-        <v>10.02282313251374</v>
+        <v>9.92776187476044</v>
       </c>
       <c r="N9" t="n">
-        <v>153.0820450854917</v>
+        <v>150.9303683877461</v>
       </c>
       <c r="O9" t="n">
-        <v>12.37263290837855</v>
+        <v>12.28537213061721</v>
       </c>
       <c r="P9" t="n">
-        <v>368.6356163870321</v>
+        <v>368.6054054908213</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -35281,28 +35819,28 @@
         <v>0.1389</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5183367241392964</v>
+        <v>0.5392756182389947</v>
       </c>
       <c r="J10" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K10" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08889049657353931</v>
+        <v>0.098414612441031</v>
       </c>
       <c r="M10" t="n">
-        <v>9.862417407428911</v>
+        <v>9.801382355355061</v>
       </c>
       <c r="N10" t="n">
-        <v>141.8779388827036</v>
+        <v>140.402316730231</v>
       </c>
       <c r="O10" t="n">
-        <v>11.91125261602253</v>
+        <v>11.84914835463845</v>
       </c>
       <c r="P10" t="n">
-        <v>374.2615064123627</v>
+        <v>374.0597412649786</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -35358,28 +35896,28 @@
         <v>0.1207</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4505351544240184</v>
+        <v>0.4748021217089519</v>
       </c>
       <c r="J11" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K11" t="n">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07257329026121229</v>
+        <v>0.08230675630019579</v>
       </c>
       <c r="M11" t="n">
-        <v>9.383371732274975</v>
+        <v>9.351952399968392</v>
       </c>
       <c r="N11" t="n">
-        <v>132.1308749590002</v>
+        <v>131.0258637386103</v>
       </c>
       <c r="O11" t="n">
-        <v>11.49481948353258</v>
+        <v>11.44665294916424</v>
       </c>
       <c r="P11" t="n">
-        <v>377.2197373498653</v>
+        <v>376.9852267892522</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -35435,28 +35973,28 @@
         <v>0.1306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4801424033595564</v>
+        <v>0.5109317757166308</v>
       </c>
       <c r="J12" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K12" t="n">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09437572696551999</v>
+        <v>0.1079315156433078</v>
       </c>
       <c r="M12" t="n">
-        <v>8.588391344319426</v>
+        <v>8.59806710390497</v>
       </c>
       <c r="N12" t="n">
-        <v>111.2920679240569</v>
+        <v>111.0897921984268</v>
       </c>
       <c r="O12" t="n">
-        <v>10.54950557723237</v>
+        <v>10.53991424056319</v>
       </c>
       <c r="P12" t="n">
-        <v>377.9617467700283</v>
+        <v>377.6617863218894</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -35512,28 +36050,28 @@
         <v>0.1442</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4904186805303923</v>
+        <v>0.5120847890704411</v>
       </c>
       <c r="J13" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K13" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1016351876565526</v>
+        <v>0.1129101105977116</v>
       </c>
       <c r="M13" t="n">
-        <v>8.296118227630018</v>
+        <v>8.276326304944527</v>
       </c>
       <c r="N13" t="n">
-        <v>106.822684170426</v>
+        <v>105.9413618280376</v>
       </c>
       <c r="O13" t="n">
-        <v>10.33550599489091</v>
+        <v>10.29278202567399</v>
       </c>
       <c r="P13" t="n">
-        <v>375.5877254759835</v>
+        <v>375.3767264254299</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -35589,28 +36127,28 @@
         <v>0.1763</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5516532834483935</v>
+        <v>0.5817324834415664</v>
       </c>
       <c r="J14" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K14" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1183267576717827</v>
+        <v>0.1330116224245768</v>
       </c>
       <c r="M14" t="n">
-        <v>8.492252461748006</v>
+        <v>8.501548859467135</v>
       </c>
       <c r="N14" t="n">
-        <v>114.6583465035526</v>
+        <v>114.268443285464</v>
       </c>
       <c r="O14" t="n">
-        <v>10.70786376937775</v>
+        <v>10.68964186890581</v>
       </c>
       <c r="P14" t="n">
-        <v>374.2311423296511</v>
+        <v>373.9405590128325</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -35666,28 +36204,28 @@
         <v>0.1369</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6172239716783441</v>
+        <v>0.6324206457616823</v>
       </c>
       <c r="J15" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K15" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1211572756346854</v>
+        <v>0.1302614565166191</v>
       </c>
       <c r="M15" t="n">
-        <v>9.30370119763931</v>
+        <v>9.255369488962751</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5286427457786</v>
+        <v>138.9444293859193</v>
       </c>
       <c r="O15" t="n">
-        <v>11.85447775086607</v>
+        <v>11.78746916797322</v>
       </c>
       <c r="P15" t="n">
-        <v>371.5357868833761</v>
+        <v>371.3889813580784</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -35743,28 +36281,28 @@
         <v>0.09959999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5383053306229456</v>
+        <v>0.5527369720245935</v>
       </c>
       <c r="J16" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K16" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08591105086677397</v>
+        <v>0.09296878852871426</v>
       </c>
       <c r="M16" t="n">
-        <v>9.872490365165987</v>
+        <v>9.799577560604114</v>
       </c>
       <c r="N16" t="n">
-        <v>155.6862984688997</v>
+        <v>153.7806525148597</v>
       </c>
       <c r="O16" t="n">
-        <v>12.47743156538635</v>
+        <v>12.40083273473438</v>
       </c>
       <c r="P16" t="n">
-        <v>376.349971428677</v>
+        <v>376.208431045252</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -35820,28 +36358,28 @@
         <v>0.1007</v>
       </c>
       <c r="I17" t="n">
-        <v>0.678467530503516</v>
+        <v>0.7069158368938581</v>
       </c>
       <c r="J17" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K17" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1453680724579335</v>
+        <v>0.1587925151968542</v>
       </c>
       <c r="M17" t="n">
-        <v>9.420558289081216</v>
+        <v>9.414709121213239</v>
       </c>
       <c r="N17" t="n">
-        <v>136.4020540849859</v>
+        <v>136.1117796549272</v>
       </c>
       <c r="O17" t="n">
-        <v>11.67912899513427</v>
+        <v>11.66669531850932</v>
       </c>
       <c r="P17" t="n">
-        <v>368.0764979867784</v>
+        <v>367.8011795166702</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -35897,28 +36435,28 @@
         <v>0.1087</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5274254095534988</v>
+        <v>0.5432793511880563</v>
       </c>
       <c r="J18" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K18" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1074533513485216</v>
+        <v>0.1162963173054583</v>
       </c>
       <c r="M18" t="n">
-        <v>8.640958085657093</v>
+        <v>8.599486882091778</v>
       </c>
       <c r="N18" t="n">
-        <v>117.2015079132706</v>
+        <v>116.049648890499</v>
       </c>
       <c r="O18" t="n">
-        <v>10.82596452577185</v>
+        <v>10.77263425957175</v>
       </c>
       <c r="P18" t="n">
-        <v>365.4286430062394</v>
+        <v>365.2758969900264</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -35974,28 +36512,28 @@
         <v>0.1031</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6318533258756501</v>
+        <v>0.6545544644502317</v>
       </c>
       <c r="J19" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K19" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1361744983350989</v>
+        <v>0.1480736722002104</v>
       </c>
       <c r="M19" t="n">
-        <v>8.910168146322182</v>
+        <v>8.904558966384858</v>
       </c>
       <c r="N19" t="n">
-        <v>126.8833915721082</v>
+        <v>126.2737682941679</v>
       </c>
       <c r="O19" t="n">
-        <v>11.26425281907807</v>
+        <v>11.23716015255491</v>
       </c>
       <c r="P19" t="n">
-        <v>365.9827224316957</v>
+        <v>365.765917501649</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -36051,28 +36589,28 @@
         <v>0.0854</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7034769055378273</v>
+        <v>0.7125697597309965</v>
       </c>
       <c r="J20" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K20" t="n">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1227866189960369</v>
+        <v>0.1286426292861591</v>
       </c>
       <c r="M20" t="n">
-        <v>10.80448050735016</v>
+        <v>10.76421730014158</v>
       </c>
       <c r="N20" t="n">
-        <v>178.2616019433401</v>
+        <v>177.2532918708984</v>
       </c>
       <c r="O20" t="n">
-        <v>13.35146441194149</v>
+        <v>13.31365058392695</v>
       </c>
       <c r="P20" t="n">
-        <v>363.8551094856788</v>
+        <v>363.768257605464</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -36128,28 +36666,28 @@
         <v>0.075</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6127072127512149</v>
+        <v>0.6039835369386586</v>
       </c>
       <c r="J21" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K21" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1170042141392762</v>
+        <v>0.1166966041188131</v>
       </c>
       <c r="M21" t="n">
-        <v>9.776540407242972</v>
+        <v>9.754631243633384</v>
       </c>
       <c r="N21" t="n">
-        <v>143.6392242853243</v>
+        <v>143.0777950899723</v>
       </c>
       <c r="O21" t="n">
-        <v>11.98495825129668</v>
+        <v>11.96151307694693</v>
       </c>
       <c r="P21" t="n">
-        <v>359.8182489139563</v>
+        <v>359.9020262244935</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -36205,28 +36743,28 @@
         <v>0.0907</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5772250204936886</v>
+        <v>0.5643171064375481</v>
       </c>
       <c r="J22" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K22" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09733708098490712</v>
+        <v>0.09508345522695771</v>
       </c>
       <c r="M22" t="n">
-        <v>9.762232665840779</v>
+        <v>9.712040030339756</v>
       </c>
       <c r="N22" t="n">
-        <v>158.7430770165769</v>
+        <v>158.0485532228139</v>
       </c>
       <c r="O22" t="n">
-        <v>12.59932843514196</v>
+        <v>12.5717362851284</v>
       </c>
       <c r="P22" t="n">
-        <v>360.613459490456</v>
+        <v>360.7376112194166</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -36282,28 +36820,28 @@
         <v>0.0948</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6567978964970336</v>
+        <v>0.6625219800578056</v>
       </c>
       <c r="J23" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K23" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1214094963936079</v>
+        <v>0.1260677923313867</v>
       </c>
       <c r="M23" t="n">
-        <v>9.980352440818512</v>
+        <v>9.897716137644144</v>
       </c>
       <c r="N23" t="n">
-        <v>159.0254975435618</v>
+        <v>157.2930915130831</v>
       </c>
       <c r="O23" t="n">
-        <v>12.61053121575621</v>
+        <v>12.54165425743682</v>
       </c>
       <c r="P23" t="n">
-        <v>366.8189826178339</v>
+        <v>366.7633601017117</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -36359,28 +36897,28 @@
         <v>0.1113</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6240518017965191</v>
+        <v>0.6260626858647076</v>
       </c>
       <c r="J24" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K24" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1005092260946397</v>
+        <v>0.1039319667233439</v>
       </c>
       <c r="M24" t="n">
-        <v>10.48129296844823</v>
+        <v>10.37060874097916</v>
       </c>
       <c r="N24" t="n">
-        <v>174.2450047437494</v>
+        <v>172.0308870217044</v>
       </c>
       <c r="O24" t="n">
-        <v>13.2001895722656</v>
+        <v>13.11605455240654</v>
       </c>
       <c r="P24" t="n">
-        <v>371.3601779391385</v>
+        <v>371.3408936793938</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -36436,28 +36974,28 @@
         <v>0.0622</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3977644158999263</v>
+        <v>0.3906347404178906</v>
       </c>
       <c r="J25" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K25" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04733398785310072</v>
+        <v>0.04697711325999465</v>
       </c>
       <c r="M25" t="n">
-        <v>9.956119120180292</v>
+        <v>9.864989089418167</v>
       </c>
       <c r="N25" t="n">
-        <v>161.7987107432008</v>
+        <v>159.8969856012627</v>
       </c>
       <c r="O25" t="n">
-        <v>12.72001221474259</v>
+        <v>12.64503798338553</v>
       </c>
       <c r="P25" t="n">
-        <v>373.2592987094576</v>
+        <v>373.3282092411264</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -36494,7 +37032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z403"/>
+  <dimension ref="A1:Z409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81322,6 +81860,746 @@
         </is>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-36.87310253395846,175.81791584739582</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-36.87377646385741,175.81777274387613</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-36.87440238718671,175.81756669525035</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-36.875098081761756,175.8175880033321</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-36.87578193286181,175.8177557656982</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-36.87648096448654,175.81787248510082</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>-36.87717425251502,175.81809370589846</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>-36.87788619611198,175.8182211825932</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>-36.87854620884329,175.81855439101435</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>-36.87920729134354,175.81888358582765</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>-36.8798711464268,175.8191954005746</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>-36.88055259767468,175.8194685206895</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>-36.88119920405624,175.8198343798441</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>-36.88185880021061,175.82018980276933</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>-36.88251716079778,175.82050398528665</t>
+        </is>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>-36.88307431788068,175.82102332085844</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>-36.88379737453892,175.82127145010207</t>
+        </is>
+      </c>
+      <c r="S404" t="inlineStr">
+        <is>
+          <t>-36.88437767452986,175.82181531693115</t>
+        </is>
+      </c>
+      <c r="T404" t="inlineStr">
+        <is>
+          <t>-36.88504688099174,175.82211242922608</t>
+        </is>
+      </c>
+      <c r="U404" t="inlineStr">
+        <is>
+          <t>-36.88568328492181,175.82252623338712</t>
+        </is>
+      </c>
+      <c r="V404" t="inlineStr">
+        <is>
+          <t>-36.88629799639971,175.82300329230563</t>
+        </is>
+      </c>
+      <c r="W404" t="inlineStr">
+        <is>
+          <t>-36.88686183270644,175.8235560782447</t>
+        </is>
+      </c>
+      <c r="X404" t="inlineStr">
+        <is>
+          <t>-36.887388146214654,175.82409886096335</t>
+        </is>
+      </c>
+      <c r="Y404" t="inlineStr">
+        <is>
+          <t>-36.8879212090494,175.824656866303</t>
+        </is>
+      </c>
+      <c r="Z404" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>-36.87308863211179,175.81788699019444</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-36.87374211469626,175.81764194891363</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-36.87440220243012,175.8175597411199</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-36.875097646310785,175.81759475861443</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-36.87579582067165,175.81765880912292</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>-36.87649046111426,175.81782419727838</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>-36.877187675608454,175.81802923512558</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>-36.8778687267625,175.8182992380562</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>-36.878524383873085,175.81863908569292</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>-36.8791949371834,175.81892730305722</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>-36.879855082575894,175.81924725595482</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>-36.88054441742379,175.81949374597795</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>-36.881207119151,175.81981188260667</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>-36.88187498525657,175.82014357498193</t>
+        </is>
+      </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>-36.88253566758044,175.8204569606418</t>
+        </is>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>-36.88314208462087,175.8208817038058</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>-36.88379311432046,175.8212808749363</t>
+        </is>
+      </c>
+      <c r="S405" t="inlineStr">
+        <is>
+          <t>-36.884428343040916,175.8217016167763</t>
+        </is>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>-36.88504621577479,175.82211367405287</t>
+        </is>
+      </c>
+      <c r="U405" t="inlineStr">
+        <is>
+          <t>-36.885694437726364,175.8225064076894</t>
+        </is>
+      </c>
+      <c r="V405" t="inlineStr">
+        <is>
+          <t>-36.88628038755908,175.82303790064114</t>
+        </is>
+      </c>
+      <c r="W405" t="inlineStr">
+        <is>
+          <t>-36.88683759790435,175.82360119387033</t>
+        </is>
+      </c>
+      <c r="X405" t="inlineStr">
+        <is>
+          <t>-36.887383459495744,175.8241054440002</t>
+        </is>
+      </c>
+      <c r="Y405" t="inlineStr">
+        <is>
+          <t>-36.88791204851352,175.82466741696916</t>
+        </is>
+      </c>
+      <c r="Z405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-36.87305724613052,175.81782183983802</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-36.873738625663925,175.81762866339122</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-36.87440039249451,175.81749161700822</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-36.87510268038904,175.81751666307417</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-36.875799608305144,175.81763236597732</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-36.87649360026793,175.8178082354938</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>-36.87718339332898,175.8180498028243</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>-36.87785698073801,175.81835172076669</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>-36.87855160880111,175.81853343572203</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>-36.87922718885541,175.81881317505875</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>-36.87988749421619,175.81914262852266</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>-36.880564464893304,175.8194319259285</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>-36.88122997573756,175.81974691676575</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>-36.881905703098106,175.820055838379</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>-36.882550766248656,175.82041859576412</t>
+        </is>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>-36.88315236174457,175.82086022690643</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>-36.8838259690285,175.8212081907604</t>
+        </is>
+      </c>
+      <c r="S406" t="inlineStr">
+        <is>
+          <t>-36.88446088716346,175.82162858755117</t>
+        </is>
+      </c>
+      <c r="T406" t="inlineStr">
+        <is>
+          <t>-36.88512715595787,175.82196220958846</t>
+        </is>
+      </c>
+      <c r="U406" t="inlineStr">
+        <is>
+          <t>-36.88574778115834,175.82241158198823</t>
+        </is>
+      </c>
+      <c r="V406" t="inlineStr">
+        <is>
+          <t>-36.88637704326838,175.82284793351806</t>
+        </is>
+      </c>
+      <c r="W406" t="inlineStr">
+        <is>
+          <t>-36.88685537343223,175.8235681028668</t>
+        </is>
+      </c>
+      <c r="X406" t="inlineStr">
+        <is>
+          <t>-36.88741128771418,175.82406635604158</t>
+        </is>
+      </c>
+      <c r="Y406" t="inlineStr">
+        <is>
+          <t>-36.88794927971517,175.82462453583395</t>
+        </is>
+      </c>
+      <c r="Z406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>-36.87315990666149,175.81803494088504</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-36.87378784513264,175.81781608172045</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-36.874407099654675,175.81774407501607</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-36.875086722289694,175.81776422427566</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-36.87577890410871,175.81777691060552</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>-36.87644377026326,175.8180616067543</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>-36.87717335990069,175.81809799309545</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>-36.87783712157122,175.81844045374544</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>-36.87850536513716,175.81871289018147</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>-36.87916950987231,175.81901728156362</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>-36.87982240077455,175.81935275510432</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>-36.88051070095547,175.8195977166005</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>-36.88115694241347,175.8199545007063</t>
+        </is>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>-36.88183243690301,175.82026510159568</t>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>-36.882475906856584,175.82060880887448</t>
+        </is>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>-36.88309174564343,175.82098690086</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>-36.88377114571719,175.82132947579242</t>
+        </is>
+      </c>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t>-36.88439109907352,175.82178519228853</t>
+        </is>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t>-36.88496419443092,175.82226716102912</t>
+        </is>
+      </c>
+      <c r="U407" t="inlineStr">
+        <is>
+          <t>-36.885584574915136,175.82270170397967</t>
+        </is>
+      </c>
+      <c r="V407" t="inlineStr"/>
+      <c r="W407" t="inlineStr"/>
+      <c r="X407" t="inlineStr"/>
+      <c r="Y407" t="inlineStr"/>
+      <c r="Z407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-36.873109559509366,175.81793043091685</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-36.87376154689893,175.81771594289998</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-36.874405483330904,175.81768323461284</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-36.875095651556165,175.8176257037667</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-36.87579868373815,175.8176388207926</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>-36.87650070083769,175.81777213088827</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>-36.87718902582514,175.8180227500591</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>-36.87785466698494,175.81836205889164</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>-36.87851656778827,175.81866941697422</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>-36.87919264034306,175.81893543079724</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>-36.879852113330635,175.81925684090297</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>-36.880526651015295,175.8195485318491</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>-36.88118756026723,175.81986747519642</t>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>-36.88185788740884,175.82019240991502</t>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>-36.882513098814215,175.8205143065385</t>
+        </is>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>-36.8831309723073,175.82090492605076</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>-36.88377549428492,175.82131985551803</t>
+        </is>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>-36.88440903405839,175.8217449461848</t>
+        </is>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>-36.88503485719342,175.82213492946727</t>
+        </is>
+      </c>
+      <c r="U408" t="inlineStr">
+        <is>
+          <t>-36.88568522851485,175.82252277837466</t>
+        </is>
+      </c>
+      <c r="V408" t="inlineStr">
+        <is>
+          <t>-36.8862708119447,175.82305672049557</t>
+        </is>
+      </c>
+      <c r="W408" t="inlineStr">
+        <is>
+          <t>-36.88682185028158,175.82363050968993</t>
+        </is>
+      </c>
+      <c r="X408" t="inlineStr">
+        <is>
+          <t>-36.88738967968777,175.8240967070234</t>
+        </is>
+      </c>
+      <c r="Y408" t="inlineStr">
+        <is>
+          <t>-36.88789061381795,175.82469210441045</t>
+        </is>
+      </c>
+      <c r="Z408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-36.87304692137989,175.81780040796758</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-36.87374400847518,175.8176491600399</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-36.87440429304517,175.81763843155565</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-36.87509607019916,175.8176192092586</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-36.87579091736183,175.8176930412342</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>-36.87647814287253,175.8178868322352</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>-36.87716636586676,175.81813158517937</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>-36.87785665497085,175.81835317633357</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>-36.87852659988807,175.81863048616685</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>-36.87919973694871,175.81891031830577</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>-36.87986430667662,175.8192174798401</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>-36.88053743342057,175.81951528240248</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>-36.88119112835339,175.81985733356427</t>
+        </is>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>-36.88186892281868,175.82016089054733</t>
+        </is>
+      </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>-36.88251125606039,175.82051898886215</t>
+        </is>
+      </c>
+      <c r="Q409" t="inlineStr"/>
+      <c r="R409" t="inlineStr"/>
+      <c r="S409" t="inlineStr"/>
+      <c r="T409" t="inlineStr"/>
+      <c r="U409" t="inlineStr"/>
+      <c r="V409" t="inlineStr"/>
+      <c r="W409" t="inlineStr"/>
+      <c r="X409" t="inlineStr"/>
+      <c r="Y409" t="inlineStr"/>
+      <c r="Z409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0181/nzd0181.xlsx
+++ b/data/nzd0181/nzd0181.xlsx
@@ -35048,7 +35048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35139,35 +35139,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -35226,27 +35231,28 @@
       <c r="P2" t="n">
         <v>348.3184739923793</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.8144378747508 -36.87142694463628, 175.82328449864502 -36.87568864558931)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.8144378747508</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.87142694463628</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.823284498645</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.87568864558931</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.8188611866979</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.8735577951128</v>
       </c>
     </row>
@@ -35303,27 +35309,28 @@
       <c r="P3" t="n">
         <v>366.3502549149026</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.81359449898306 -36.872679092024356, 175.8234016046373 -36.87525453758837)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.8135944989831</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.87267909202436</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.8234016046373</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.87525453758837</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.8184980518102</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.87396681480637</v>
       </c>
     </row>
@@ -35380,27 +35387,28 @@
       <c r="P4" t="n">
         <v>366.6326760712992</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.81328984700906 -36.874288683096914, 175.82360352361698 -36.87456261864334)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.8132898470091</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.87428868309691</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.823603523617</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.87456261864334</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.818446685313</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.87442565087012</v>
       </c>
     </row>
@@ -35457,27 +35465,28 @@
       <c r="P5" t="n">
         <v>370.2195866412256</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.81330878471698 -36.87537384571508, 175.82359503252027 -36.87471071058263)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.813308784717</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.87537384571508</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.8235950325203</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.87471071058263</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.8184519086186</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.87504227814885</v>
       </c>
     </row>
@@ -35534,27 +35543,28 @@
       <c r="P6" t="n">
         <v>369.9075678883594</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.8134572053536 -36.87639756732949, 175.82361600229996 -36.87494237259513)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.8134572053536</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.87639756732949</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.8236160023</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.87494237259513</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.8185366038268</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.87566996996231</v>
       </c>
     </row>
@@ -35611,27 +35621,28 @@
       <c r="P7" t="n">
         <v>367.1628263267779</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.81369132543307 -36.87730318058481, 175.82371404411325 -36.87533196133309)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.8136913254331</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.87730318058481</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.8237140441132</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.87533196133309</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.8187026847731</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.87631757095895</v>
       </c>
     </row>
@@ -35688,27 +35699,28 @@
       <c r="P8" t="n">
         <v>363.8558549765435</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.81391689297396 -36.87804380190892, 175.82390552565045 -36.87596404527568)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.813916892974</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.87804380190892</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.8239055256504</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.87596404527568</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.8189112093122</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.8770039235923</v>
       </c>
     </row>
@@ -35765,27 +35777,28 @@
       <c r="P9" t="n">
         <v>368.6054054908213</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.81414082771173 -36.87879932606753, 175.82408085691338 -36.87657459790855)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.8141408277117</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.87879932606753</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.8240808569134</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.87657459790855</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.8191108423126</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.87768696198804</v>
       </c>
     </row>
@@ -35842,27 +35855,28 @@
       <c r="P10" t="n">
         <v>374.0597412649786</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.8144286219934 -36.879609291202506, 175.8242538177359 -36.87707736342853)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.8144286219934</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.87960929120251</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.8242538177359</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.87707736342853</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.8193412198646</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.87834332731552</v>
       </c>
     </row>
@@ -35919,27 +35933,28 @@
       <c r="P11" t="n">
         <v>376.9852267892522</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.8147363929824 -36.88037916689138, 175.82446982949233 -36.87762850068923)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.8147363929824</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.88037916689138</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.8244698294923</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.87762850068923</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.8196031112374</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.87900383379031</v>
       </c>
     </row>
@@ -35996,27 +36011,28 @@
       <c r="P12" t="n">
         <v>377.6617863218894</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.81506942898508 -36.88114920449425, 175.82469631834212 -36.8781669012981)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.8150694289851</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.88114920449425</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.8246963183421</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.8781669012981</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.8198828736636</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.87965805289618</v>
       </c>
     </row>
@@ -36073,27 +36089,28 @@
       <c r="P13" t="n">
         <v>375.3767264254299</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.81541538495472 -36.881866888992754, 175.82498298959294 -36.87876415699561)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.8154153849547</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.88186688899275</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.8249829895929</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.87876415699561</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.8201991872738</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.88031552299418</v>
       </c>
     </row>
@@ -36150,27 +36167,28 @@
       <c r="P14" t="n">
         <v>373.9405590128325</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.81577897048635 -36.882625905594075, 175.82522981075093 -36.879300788248194)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.8157789704863</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.88262590559408</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.8252298107509</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.87930078824819</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.8205043906186</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.88096334692113</v>
       </c>
     </row>
@@ -36227,27 +36245,28 @@
       <c r="P15" t="n">
         <v>371.3889813580784</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.81614691978046 -36.88327418230741, 175.82560519901375 -36.87996261941171)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.8161469197805</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.88327418230741</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.8256051990138</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.87996261941171</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.8208760593971</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.88161840085956</v>
       </c>
     </row>
@@ -36304,27 +36323,28 @@
       <c r="P16" t="n">
         <v>376.208431045252</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.8165373179392 -36.88407816739032, 175.82580227978298 -36.880431817523856)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.8165373179392</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.88407816739032</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.825802279783</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.88043181752386</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.8211697988611</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.88225499245709</v>
       </c>
     </row>
@@ -36381,27 +36401,28 @@
       <c r="P17" t="n">
         <v>367.8011795166702</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.81713539685575 -36.88493466876375, 175.82599818816752 -36.88069355990708)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.8171353968557</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.88493466876375</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.8259981881675</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.88069355990708</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.8215667925116</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.88281411433542</v>
       </c>
     </row>
@@ -36458,27 +36479,28 @@
       <c r="P18" t="n">
         <v>365.2758969900264</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (175.81753266979896 -36.88548728559529, 175.82652346712348 -36.88142316966916)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>175.817532669799</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-36.88548728559529</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>175.8265234671235</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-36.88142316966916</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>175.8220280684612</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-36.88345522763223</v>
       </c>
     </row>
@@ -36535,27 +36557,28 @@
       <c r="P19" t="n">
         <v>365.765917501649</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (175.8179241033397 -36.886111628768326, 175.82694549870635 -36.882091318375124)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>175.8179241033397</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-36.88611162876833</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>175.8269454987064</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-36.88209131837512</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>175.822434801023</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-36.88410147357173</v>
       </c>
     </row>
@@ -36612,27 +36635,28 @@
       <c r="P20" t="n">
         <v>363.768257605464</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (175.8185302862717 -36.88696102545688, 175.82711896482712 -36.882371268479865)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>175.8185302862717</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-36.88696102545688</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>175.8271189648271</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-36.88237126847987</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>175.8228246255494</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-36.88466614696837</v>
       </c>
     </row>
@@ -36689,27 +36713,28 @@
       <c r="P21" t="n">
         <v>359.9020262244935</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (175.81911006432728 -36.887604931973094, 175.82755942654128 -36.882851691073505)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>175.8191100643273</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-36.88760493197309</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>175.8275594265413</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-36.8828516910735</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>175.8233347454343</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-36.8852283115233</v>
       </c>
     </row>
@@ -36766,27 +36791,28 @@
       <c r="P22" t="n">
         <v>360.7376112194166</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (175.81948193518437 -36.88808958217733, 175.8281967471428 -36.88365534989951)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>175.8194819351844</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-36.88808958217733</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>175.8281967471428</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-36.88365534989951</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>175.8238393411636</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-36.88587246603842</v>
       </c>
     </row>
@@ -36843,27 +36869,28 @@
       <c r="P23" t="n">
         <v>366.7633601017117</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (175.8199939024086 -36.888775229875584, 175.8285688779858 -36.88416890847413)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>175.8199939024086</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-36.88877522987558</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>175.8285688779858</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-36.88416890847413</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>175.8242813901972</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-36.88647206917486</v>
       </c>
     </row>
@@ -36920,27 +36947,28 @@
       <c r="P24" t="n">
         <v>371.3408936793938</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (175.8208373793057 -36.88971000919655, 175.82855581229833 -36.884214861225026)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>175.8208373793057</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-36.88971000919655</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>175.8285558122983</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-36.88421486122503</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>175.824696595802</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-36.88696243521079</v>
       </c>
     </row>
@@ -36997,27 +37025,28 @@
       <c r="P25" t="n">
         <v>373.3282092411264</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (175.82176151340232 -36.89043496285283, 175.82876455089382 -36.88435451420919)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>175.8217615134023</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-36.89043496285283</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>175.8287645508938</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-36.88435451420919</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>175.8252630321481</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-36.88739473853101</v>
       </c>
     </row>

--- a/data/nzd0181/nzd0181.xlsx
+++ b/data/nzd0181/nzd0181.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z409"/>
+  <dimension ref="A1:Z414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30626,6 +30626,410 @@
         </is>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>367.2177777777778</v>
+      </c>
+      <c r="C410" t="n">
+        <v>384.0533333333333</v>
+      </c>
+      <c r="D410" t="n">
+        <v>393.0670588235294</v>
+      </c>
+      <c r="E410" t="n">
+        <v>392.0288888888889</v>
+      </c>
+      <c r="F410" t="n">
+        <v>383.0226086956522</v>
+      </c>
+      <c r="G410" t="n">
+        <v>391.9326086956522</v>
+      </c>
+      <c r="H410" t="n">
+        <v>382.8575</v>
+      </c>
+      <c r="I410" t="n">
+        <v>391.0661904761905</v>
+      </c>
+      <c r="J410" t="n">
+        <v>393.5563636363637</v>
+      </c>
+      <c r="K410" t="n">
+        <v>399.6452631578948</v>
+      </c>
+      <c r="L410" t="n">
+        <v>400.6161904761905</v>
+      </c>
+      <c r="M410" t="n">
+        <v>399.5726086956522</v>
+      </c>
+      <c r="N410" t="n">
+        <v>402.4792592592593</v>
+      </c>
+      <c r="O410" t="n">
+        <v>399.7763636363636</v>
+      </c>
+      <c r="P410" t="n">
+        <v>404.175</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>390.9070588235294</v>
+      </c>
+      <c r="R410" t="n">
+        <v>391.2488888888889</v>
+      </c>
+      <c r="S410" t="n">
+        <v>388.7488888888889</v>
+      </c>
+      <c r="T410" t="n">
+        <v>388.0766666666667</v>
+      </c>
+      <c r="U410" t="n">
+        <v>379.4976923076923</v>
+      </c>
+      <c r="V410" t="n">
+        <v>381.5766666666667</v>
+      </c>
+      <c r="W410" t="n">
+        <v>388.705</v>
+      </c>
+      <c r="X410" t="n">
+        <v>389.6388888888889</v>
+      </c>
+      <c r="Y410" t="n">
+        <v>395.3227272727273</v>
+      </c>
+      <c r="Z410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>380.5211111111111</v>
+      </c>
+      <c r="C411" t="n">
+        <v>398.4233333333333</v>
+      </c>
+      <c r="D411" t="n">
+        <v>392.6111764705882</v>
+      </c>
+      <c r="E411" t="n">
+        <v>398.6455555555555</v>
+      </c>
+      <c r="F411" t="n">
+        <v>384.8404347826087</v>
+      </c>
+      <c r="G411" t="n">
+        <v>387.6804347826087</v>
+      </c>
+      <c r="H411" t="n">
+        <v>382.2775</v>
+      </c>
+      <c r="I411" t="n">
+        <v>392.1890476190476</v>
+      </c>
+      <c r="J411" t="n">
+        <v>396.5436363636364</v>
+      </c>
+      <c r="K411" t="n">
+        <v>393.8905263157895</v>
+      </c>
+      <c r="L411" t="n">
+        <v>395.7590476190476</v>
+      </c>
+      <c r="M411" t="n">
+        <v>396.9204347826087</v>
+      </c>
+      <c r="N411" t="n">
+        <v>399.6003703703704</v>
+      </c>
+      <c r="O411" t="n">
+        <v>393.6336363636364</v>
+      </c>
+      <c r="P411" t="n">
+        <v>402.565</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>395.5511764705882</v>
+      </c>
+      <c r="R411" t="n">
+        <v>390.9055555555556</v>
+      </c>
+      <c r="S411" t="n">
+        <v>390.3455555555556</v>
+      </c>
+      <c r="T411" t="n">
+        <v>392.4666666666667</v>
+      </c>
+      <c r="U411" t="n">
+        <v>387.2869230769231</v>
+      </c>
+      <c r="V411" t="n">
+        <v>381.1966666666667</v>
+      </c>
+      <c r="W411" t="n">
+        <v>395.275</v>
+      </c>
+      <c r="X411" t="n">
+        <v>397.7755555555556</v>
+      </c>
+      <c r="Y411" t="n">
+        <v>397.4672727272728</v>
+      </c>
+      <c r="Z411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:17+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>366.5088888888889</v>
+      </c>
+      <c r="C412" t="n">
+        <v>381.3766666666667</v>
+      </c>
+      <c r="D412" t="n">
+        <v>390.1988235294118</v>
+      </c>
+      <c r="E412" t="n">
+        <v>388.0944444444444</v>
+      </c>
+      <c r="F412" t="n">
+        <v>383.8495652173913</v>
+      </c>
+      <c r="G412" t="n">
+        <v>392.2995652173913</v>
+      </c>
+      <c r="H412" t="n">
+        <v>406.9625</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>411.5763636363636</v>
+      </c>
+      <c r="K412" t="n">
+        <v>400.3494736842105</v>
+      </c>
+      <c r="L412" t="n">
+        <v>401.5709523809524</v>
+      </c>
+      <c r="M412" t="n">
+        <v>406.4395652173913</v>
+      </c>
+      <c r="N412" t="n">
+        <v>407.2796296296296</v>
+      </c>
+      <c r="O412" t="n">
+        <v>404.6463636363636</v>
+      </c>
+      <c r="P412" t="n">
+        <v>404.075</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>401.2388235294118</v>
+      </c>
+      <c r="R412" t="n">
+        <v>396.5044444444445</v>
+      </c>
+      <c r="S412" t="n">
+        <v>406.3544444444445</v>
+      </c>
+      <c r="T412" t="n">
+        <v>393.6233333333333</v>
+      </c>
+      <c r="U412" t="n">
+        <v>387.2030769230769</v>
+      </c>
+      <c r="V412" t="n">
+        <v>362.4933333333333</v>
+      </c>
+      <c r="W412" t="inlineStr"/>
+      <c r="X412" t="inlineStr"/>
+      <c r="Y412" t="n">
+        <v>402.4927272727273</v>
+      </c>
+      <c r="Z412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>373.0288888888889</v>
+      </c>
+      <c r="C413" t="n">
+        <v>383.8366666666667</v>
+      </c>
+      <c r="D413" t="n">
+        <v>382.3270588235294</v>
+      </c>
+      <c r="E413" t="n">
+        <v>385.2944444444445</v>
+      </c>
+      <c r="F413" t="n">
+        <v>378.4856521739131</v>
+      </c>
+      <c r="G413" t="n">
+        <v>381.5756521739131</v>
+      </c>
+      <c r="H413" t="n">
+        <v>383.6875</v>
+      </c>
+      <c r="I413" t="n">
+        <v>388.332380952381</v>
+      </c>
+      <c r="J413" t="n">
+        <v>389.2281818181818</v>
+      </c>
+      <c r="K413" t="n">
+        <v>389.4131578947368</v>
+      </c>
+      <c r="L413" t="n">
+        <v>390.682380952381</v>
+      </c>
+      <c r="M413" t="n">
+        <v>390.1756521739131</v>
+      </c>
+      <c r="N413" t="n">
+        <v>389.9062962962963</v>
+      </c>
+      <c r="O413" t="n">
+        <v>389.9081818181818</v>
+      </c>
+      <c r="P413" t="n">
+        <v>392.405</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>387.7470588235294</v>
+      </c>
+      <c r="R413" t="n">
+        <v>384.4344444444445</v>
+      </c>
+      <c r="S413" t="n">
+        <v>382.7744444444445</v>
+      </c>
+      <c r="T413" t="n">
+        <v>378.6733333333333</v>
+      </c>
+      <c r="U413" t="n">
+        <v>375.4392307692308</v>
+      </c>
+      <c r="V413" t="n">
+        <v>367.5033333333333</v>
+      </c>
+      <c r="W413" t="n">
+        <v>378.665</v>
+      </c>
+      <c r="X413" t="n">
+        <v>383.6544444444445</v>
+      </c>
+      <c r="Y413" t="n">
+        <v>390.7263636363636</v>
+      </c>
+      <c r="Z413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="n">
+        <v>373.78</v>
+      </c>
+      <c r="D414" t="n">
+        <v>362.0376470588236</v>
+      </c>
+      <c r="E414" t="n">
+        <v>364.96</v>
+      </c>
+      <c r="F414" t="n">
+        <v>373.1052173913044</v>
+      </c>
+      <c r="G414" t="n">
+        <v>372.6752173913044</v>
+      </c>
+      <c r="H414" t="n">
+        <v>378.195</v>
+      </c>
+      <c r="I414" t="n">
+        <v>374.5142857142857</v>
+      </c>
+      <c r="J414" t="n">
+        <v>375.5363636363636</v>
+      </c>
+      <c r="K414" t="n">
+        <v>380.9847368421053</v>
+      </c>
+      <c r="L414" t="n">
+        <v>382.5242857142857</v>
+      </c>
+      <c r="M414" t="n">
+        <v>378.1752173913044</v>
+      </c>
+      <c r="N414" t="n">
+        <v>379.0133333333333</v>
+      </c>
+      <c r="O414" t="n">
+        <v>375.6863636363637</v>
+      </c>
+      <c r="P414" t="n">
+        <v>377.56</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>373.5776470588235</v>
+      </c>
+      <c r="R414" t="n">
+        <v>365.35</v>
+      </c>
+      <c r="S414" t="n">
+        <v>369.75</v>
+      </c>
+      <c r="T414" t="n">
+        <v>369.43</v>
+      </c>
+      <c r="U414" t="n">
+        <v>362.0092307692308</v>
+      </c>
+      <c r="V414" t="inlineStr"/>
+      <c r="W414" t="inlineStr"/>
+      <c r="X414" t="inlineStr"/>
+      <c r="Y414" t="inlineStr"/>
+      <c r="Z414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30637,7 +31041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B439"/>
+  <dimension ref="A1:B444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35035,6 +35439,56 @@
       </c>
       <c r="B439" t="n">
         <v>-0.42</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -35208,28 +35662,28 @@
         <v>0.0485</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7408548324396532</v>
+        <v>0.7525307547412028</v>
       </c>
       <c r="J2" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K2" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1336296214513932</v>
+        <v>0.1401057091394807</v>
       </c>
       <c r="M2" t="n">
-        <v>10.32453512778161</v>
+        <v>10.25824001508542</v>
       </c>
       <c r="N2" t="n">
-        <v>189.2925672639727</v>
+        <v>187.5564707267461</v>
       </c>
       <c r="O2" t="n">
-        <v>13.75836353873427</v>
+        <v>13.69512580178605</v>
       </c>
       <c r="P2" t="n">
-        <v>348.3184739923793</v>
+        <v>348.204925154756</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35286,28 +35740,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7649009483133467</v>
+        <v>0.7600258136145369</v>
       </c>
       <c r="J3" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K3" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1849397953510359</v>
+        <v>0.1870862727340999</v>
       </c>
       <c r="M3" t="n">
-        <v>9.202822619396759</v>
+        <v>9.160349279531159</v>
       </c>
       <c r="N3" t="n">
-        <v>133.8387451607744</v>
+        <v>132.7554739608412</v>
       </c>
       <c r="O3" t="n">
-        <v>11.56886965786954</v>
+        <v>11.52195616902101</v>
       </c>
       <c r="P3" t="n">
-        <v>366.3502549149026</v>
+        <v>366.3985877716262</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35364,28 +35818,28 @@
         <v>0.0989</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8047876581149722</v>
+        <v>0.7950563058085943</v>
       </c>
       <c r="J4" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K4" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1731285055101035</v>
+        <v>0.1725243954073765</v>
       </c>
       <c r="M4" t="n">
-        <v>10.00949202419066</v>
+        <v>9.992738631242764</v>
       </c>
       <c r="N4" t="n">
-        <v>159.7664442953126</v>
+        <v>159.5449656107481</v>
       </c>
       <c r="O4" t="n">
-        <v>12.63987516929311</v>
+        <v>12.63111102044266</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6326760712992</v>
+        <v>366.7293691300729</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35442,28 +35896,28 @@
         <v>0.1092</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6770811050700676</v>
+        <v>0.6718489319311105</v>
       </c>
       <c r="J5" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K5" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1372797616863576</v>
+        <v>0.1378221854000665</v>
       </c>
       <c r="M5" t="n">
-        <v>9.879719557676264</v>
+        <v>9.855893912083724</v>
       </c>
       <c r="N5" t="n">
-        <v>148.721016087222</v>
+        <v>148.4573665705943</v>
       </c>
       <c r="O5" t="n">
-        <v>12.19512263518584</v>
+        <v>12.18430821058768</v>
       </c>
       <c r="P5" t="n">
-        <v>370.2195866412256</v>
+        <v>370.2720478071793</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35520,28 +35974,28 @@
         <v>0.1499</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7069115960155111</v>
+        <v>0.6850753952249382</v>
       </c>
       <c r="J6" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K6" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L6" t="n">
-        <v>0.160850034649374</v>
+        <v>0.1557718521332615</v>
       </c>
       <c r="M6" t="n">
-        <v>9.129760894521844</v>
+        <v>9.094002110633067</v>
       </c>
       <c r="N6" t="n">
-        <v>134.2993432023249</v>
+        <v>133.3089700288675</v>
       </c>
       <c r="O6" t="n">
-        <v>11.58875934698468</v>
+        <v>11.54595037356681</v>
       </c>
       <c r="P6" t="n">
-        <v>369.9075678883594</v>
+        <v>370.1254284247173</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35598,28 +36052,28 @@
         <v>0.1673</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7843678546651678</v>
+        <v>0.778486464858906</v>
       </c>
       <c r="J7" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K7" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1730451767955281</v>
+        <v>0.1748799542238466</v>
       </c>
       <c r="M7" t="n">
-        <v>10.1039713179845</v>
+        <v>10.04190576405395</v>
       </c>
       <c r="N7" t="n">
-        <v>151.4635616764624</v>
+        <v>150.0331049883193</v>
       </c>
       <c r="O7" t="n">
-        <v>12.30705333036557</v>
+        <v>12.24880014484355</v>
       </c>
       <c r="P7" t="n">
-        <v>367.1628263267779</v>
+        <v>367.2214210156031</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35676,28 +36130,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9204647142030276</v>
+        <v>0.919032702698854</v>
       </c>
       <c r="J8" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K8" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2255567035085999</v>
+        <v>0.2290546627711701</v>
       </c>
       <c r="M8" t="n">
-        <v>9.610738467934134</v>
+        <v>9.590233868323413</v>
       </c>
       <c r="N8" t="n">
-        <v>151.4584508264151</v>
+        <v>150.7561289814196</v>
       </c>
       <c r="O8" t="n">
-        <v>12.3068456895508</v>
+        <v>12.27827874669001</v>
       </c>
       <c r="P8" t="n">
-        <v>363.8558549765435</v>
+        <v>363.8699380107262</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35754,28 +36208,28 @@
         <v>0.1342</v>
       </c>
       <c r="I9" t="n">
-        <v>0.762991942806814</v>
+        <v>0.7592851132915966</v>
       </c>
       <c r="J9" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K9" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L9" t="n">
-        <v>0.168174161118812</v>
+        <v>0.1699444561404253</v>
       </c>
       <c r="M9" t="n">
-        <v>9.92776187476044</v>
+        <v>9.872667027491946</v>
       </c>
       <c r="N9" t="n">
-        <v>150.9303683877461</v>
+        <v>149.7169342476777</v>
       </c>
       <c r="O9" t="n">
-        <v>12.28537213061721</v>
+        <v>12.23588714591948</v>
       </c>
       <c r="P9" t="n">
-        <v>368.6054054908213</v>
+        <v>368.6421647282483</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35832,28 +36286,28 @@
         <v>0.1389</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5392756182389947</v>
+        <v>0.5560159152136338</v>
       </c>
       <c r="J10" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K10" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L10" t="n">
-        <v>0.098414612441031</v>
+        <v>0.1054245786305769</v>
       </c>
       <c r="M10" t="n">
-        <v>9.801382355355061</v>
+        <v>9.808961555156051</v>
       </c>
       <c r="N10" t="n">
-        <v>140.402316730231</v>
+        <v>140.7739802279127</v>
       </c>
       <c r="O10" t="n">
-        <v>11.84914835463845</v>
+        <v>11.8648211207718</v>
       </c>
       <c r="P10" t="n">
-        <v>374.0597412649786</v>
+        <v>373.8972780021649</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35910,28 +36364,28 @@
         <v>0.1207</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4748021217089519</v>
+        <v>0.4863211200296811</v>
       </c>
       <c r="J11" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K11" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08230675630019579</v>
+        <v>0.08807644752200772</v>
       </c>
       <c r="M11" t="n">
-        <v>9.351952399968392</v>
+        <v>9.319028839221385</v>
       </c>
       <c r="N11" t="n">
-        <v>131.0258637386103</v>
+        <v>130.0293100615742</v>
       </c>
       <c r="O11" t="n">
-        <v>11.44665294916424</v>
+        <v>11.40303950977871</v>
       </c>
       <c r="P11" t="n">
-        <v>376.9852267892522</v>
+        <v>376.8732101616198</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35988,28 +36442,28 @@
         <v>0.1306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5109317757166308</v>
+        <v>0.5218092872867289</v>
       </c>
       <c r="J12" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K12" t="n">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1079315156433078</v>
+        <v>0.1145941285520308</v>
       </c>
       <c r="M12" t="n">
-        <v>8.59806710390497</v>
+        <v>8.577344902525795</v>
       </c>
       <c r="N12" t="n">
-        <v>111.0897921984268</v>
+        <v>110.3477687082486</v>
       </c>
       <c r="O12" t="n">
-        <v>10.53991424056319</v>
+        <v>10.50465462108339</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6617863218894</v>
+        <v>377.5551570048369</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36066,28 +36520,28 @@
         <v>0.1442</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5120847890704411</v>
+        <v>0.5297491131173006</v>
       </c>
       <c r="J13" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K13" t="n">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1129101105977116</v>
+        <v>0.1215686257342901</v>
       </c>
       <c r="M13" t="n">
-        <v>8.276326304944527</v>
+        <v>8.311887780134043</v>
       </c>
       <c r="N13" t="n">
-        <v>105.9413618280376</v>
+        <v>106.2224119615312</v>
       </c>
       <c r="O13" t="n">
-        <v>10.29278202567399</v>
+        <v>10.30642576073448</v>
       </c>
       <c r="P13" t="n">
-        <v>375.3767264254299</v>
+        <v>375.2035584328212</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36144,28 +36598,28 @@
         <v>0.1763</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5817324834415664</v>
+        <v>0.6032686917750262</v>
       </c>
       <c r="J14" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K14" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1330116224245768</v>
+        <v>0.1434382512464923</v>
       </c>
       <c r="M14" t="n">
-        <v>8.501548859467135</v>
+        <v>8.545597427352243</v>
       </c>
       <c r="N14" t="n">
-        <v>114.268443285464</v>
+        <v>114.7783805965459</v>
       </c>
       <c r="O14" t="n">
-        <v>10.68964186890581</v>
+        <v>10.71346725372071</v>
       </c>
       <c r="P14" t="n">
-        <v>373.9405590128325</v>
+        <v>373.7310372326155</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36222,28 +36676,28 @@
         <v>0.1369</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6324206457616823</v>
+        <v>0.6481671292198542</v>
       </c>
       <c r="J15" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K15" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1302614565166191</v>
+        <v>0.1382837607262333</v>
       </c>
       <c r="M15" t="n">
-        <v>9.255369488962751</v>
+        <v>9.270257983195632</v>
       </c>
       <c r="N15" t="n">
-        <v>138.9444293859193</v>
+        <v>138.7374939364632</v>
       </c>
       <c r="O15" t="n">
-        <v>11.78746916797322</v>
+        <v>11.77868812459448</v>
       </c>
       <c r="P15" t="n">
-        <v>371.3889813580784</v>
+        <v>371.2358346104744</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -36300,28 +36754,28 @@
         <v>0.09959999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5527369720245935</v>
+        <v>0.5699882986243917</v>
       </c>
       <c r="J16" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K16" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09296878852871426</v>
+        <v>0.09995156694681262</v>
       </c>
       <c r="M16" t="n">
-        <v>9.799577560604114</v>
+        <v>9.819439915140736</v>
       </c>
       <c r="N16" t="n">
-        <v>153.7806525148597</v>
+        <v>153.5674218492804</v>
       </c>
       <c r="O16" t="n">
-        <v>12.40083273473438</v>
+        <v>12.39223231904891</v>
       </c>
       <c r="P16" t="n">
-        <v>376.208431045252</v>
+        <v>376.0382606931003</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36378,28 +36832,28 @@
         <v>0.1007</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7069158368938581</v>
+        <v>0.7194155795462727</v>
       </c>
       <c r="J17" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K17" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1587925151968542</v>
+        <v>0.1667264895358019</v>
       </c>
       <c r="M17" t="n">
-        <v>9.414709121213239</v>
+        <v>9.406898515411399</v>
       </c>
       <c r="N17" t="n">
-        <v>136.1117796549272</v>
+        <v>135.5985160385599</v>
       </c>
       <c r="O17" t="n">
-        <v>11.66669531850932</v>
+        <v>11.64467758413945</v>
       </c>
       <c r="P17" t="n">
-        <v>367.8011795166702</v>
+        <v>367.679187627569</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -36456,28 +36910,28 @@
         <v>0.1087</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5432793511880563</v>
+        <v>0.5637105882707817</v>
       </c>
       <c r="J18" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K18" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1162963173054583</v>
+        <v>0.125599940125391</v>
       </c>
       <c r="M18" t="n">
-        <v>8.599486882091778</v>
+        <v>8.649665789372602</v>
       </c>
       <c r="N18" t="n">
-        <v>116.049648890499</v>
+        <v>116.7167719184243</v>
       </c>
       <c r="O18" t="n">
-        <v>10.77263425957175</v>
+        <v>10.8035536708263</v>
       </c>
       <c r="P18" t="n">
-        <v>365.2758969900264</v>
+        <v>365.0775313411379</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -36534,28 +36988,28 @@
         <v>0.1031</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6545544644502317</v>
+        <v>0.6713704182195799</v>
       </c>
       <c r="J19" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K19" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1480736722002104</v>
+        <v>0.1567757953940494</v>
       </c>
       <c r="M19" t="n">
-        <v>8.904558966384858</v>
+        <v>8.927109662036234</v>
       </c>
       <c r="N19" t="n">
-        <v>126.2737682941679</v>
+        <v>126.8950391714989</v>
       </c>
       <c r="O19" t="n">
-        <v>11.23716015255491</v>
+        <v>11.26476982328085</v>
       </c>
       <c r="P19" t="n">
-        <v>365.765917501649</v>
+        <v>365.6039498847769</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -36612,28 +37066,28 @@
         <v>0.0854</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7125697597309965</v>
+        <v>0.7208074399350659</v>
       </c>
       <c r="J20" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K20" t="n">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1286426292861591</v>
+        <v>0.1345676019731832</v>
       </c>
       <c r="M20" t="n">
-        <v>10.76421730014158</v>
+        <v>10.73351136982505</v>
       </c>
       <c r="N20" t="n">
-        <v>177.2532918708984</v>
+        <v>175.9113698585435</v>
       </c>
       <c r="O20" t="n">
-        <v>13.31365058392695</v>
+        <v>13.2631583666389</v>
       </c>
       <c r="P20" t="n">
-        <v>363.768257605464</v>
+        <v>363.6893035905721</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -36690,28 +37144,28 @@
         <v>0.075</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6039835369386586</v>
+        <v>0.6141185356900524</v>
       </c>
       <c r="J21" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K21" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1166966041188131</v>
+        <v>0.1230017437167242</v>
       </c>
       <c r="M21" t="n">
-        <v>9.754631243633384</v>
+        <v>9.736183203910654</v>
       </c>
       <c r="N21" t="n">
-        <v>143.0777950899723</v>
+        <v>142.2991875632676</v>
       </c>
       <c r="O21" t="n">
-        <v>11.96151307694693</v>
+        <v>11.92892231357333</v>
       </c>
       <c r="P21" t="n">
-        <v>359.9020262244935</v>
+        <v>359.8038512103132</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -36768,28 +37222,28 @@
         <v>0.0907</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5643171064375481</v>
+        <v>0.559670451686378</v>
       </c>
       <c r="J22" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K22" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09508345522695771</v>
+        <v>0.09549061039939366</v>
       </c>
       <c r="M22" t="n">
-        <v>9.712040030339756</v>
+        <v>9.690749089188063</v>
       </c>
       <c r="N22" t="n">
-        <v>158.0485532228139</v>
+        <v>157.0419792679217</v>
       </c>
       <c r="O22" t="n">
-        <v>12.5717362851284</v>
+        <v>12.53163912933666</v>
       </c>
       <c r="P22" t="n">
-        <v>360.7376112194166</v>
+        <v>360.7830800021473</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -36846,28 +37300,28 @@
         <v>0.0948</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6625219800578056</v>
+        <v>0.6697439281746393</v>
       </c>
       <c r="J23" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K23" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1260677923313867</v>
+        <v>0.1303319370753446</v>
       </c>
       <c r="M23" t="n">
-        <v>9.897716137644144</v>
+        <v>9.877255696671273</v>
       </c>
       <c r="N23" t="n">
-        <v>157.2930915130831</v>
+        <v>156.4428815995153</v>
       </c>
       <c r="O23" t="n">
-        <v>12.54165425743682</v>
+        <v>12.50771288443716</v>
       </c>
       <c r="P23" t="n">
-        <v>366.7633601017117</v>
+        <v>366.692700036368</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -36924,28 +37378,28 @@
         <v>0.1113</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6260626858647076</v>
+        <v>0.6324577957413625</v>
       </c>
       <c r="J24" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K24" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1039319667233439</v>
+        <v>0.1078186349374812</v>
       </c>
       <c r="M24" t="n">
-        <v>10.37060874097916</v>
+        <v>10.32653044502329</v>
       </c>
       <c r="N24" t="n">
-        <v>172.0308870217044</v>
+        <v>170.7859896083769</v>
       </c>
       <c r="O24" t="n">
-        <v>13.11605455240654</v>
+        <v>13.06851137690812</v>
       </c>
       <c r="P24" t="n">
-        <v>371.3408936793938</v>
+        <v>371.2789253552027</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -37002,28 +37456,28 @@
         <v>0.0622</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3906347404178906</v>
+        <v>0.4257310716232273</v>
       </c>
       <c r="J25" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K25" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04697711325999465</v>
+        <v>0.05605129944154608</v>
       </c>
       <c r="M25" t="n">
-        <v>9.864989089418167</v>
+        <v>9.928533998086269</v>
       </c>
       <c r="N25" t="n">
-        <v>159.8969856012627</v>
+        <v>160.2371219159532</v>
       </c>
       <c r="O25" t="n">
-        <v>12.64503798338553</v>
+        <v>12.65848023721462</v>
       </c>
       <c r="P25" t="n">
-        <v>373.3282092411264</v>
+        <v>372.9850689241038</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -37061,7 +37515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z409"/>
+  <dimension ref="A1:Z414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82629,6 +83083,634 @@
         </is>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-36.873128036956494,175.81796878612377</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-36.87375400911306,175.81768724047578</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-36.87440578103104,175.81769444032088</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-36.875091498726775,175.81769012729518</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-36.875792063965925,175.81768503630522</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>-36.876463803832365,175.81795974217587</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>-36.877178698636015,175.81807235131438</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>-36.87785405343733,175.8183648002948</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>-36.87852658738235,175.8186305346969</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>-36.87918468320297,175.81896358840206</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>-36.879850934274614,175.81926064698405</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>-36.88051968166251,175.81957002305657</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>-36.88117157747946,175.8199129033053</t>
+        </is>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>-36.88183550902572,175.82025632701445</t>
+        </is>
+      </c>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>-36.882476521109,175.82060724810148</t>
+        </is>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>-36.883132724029046,175.82090126534592</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>-36.88375908653623,175.8213561541322</t>
+        </is>
+      </c>
+      <c r="S410" t="inlineStr">
+        <is>
+          <t>-36.88441299101729,175.82173606676298</t>
+        </is>
+      </c>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>-36.885024912195405,175.82215353961976</t>
+        </is>
+      </c>
+      <c r="U410" t="inlineStr">
+        <is>
+          <t>-36.88564410699481,175.82259587763923</t>
+        </is>
+      </c>
+      <c r="V410" t="inlineStr">
+        <is>
+          <t>-36.88625045572159,175.82309672845872</t>
+        </is>
+      </c>
+      <c r="W410" t="inlineStr">
+        <is>
+          <t>-36.886828960496835,175.82361727329595</t>
+        </is>
+      </c>
+      <c r="X410" t="inlineStr">
+        <is>
+          <t>-36.88738212517485,175.8241073182074</t>
+        </is>
+      </c>
+      <c r="Y410" t="inlineStr">
+        <is>
+          <t>-36.887821146378286,175.82477211350235</t>
+        </is>
+      </c>
+      <c r="Z410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-36.87318966094842,175.81809670460822</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-36.873794226102724,175.81784037933673</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-36.87440564531494,175.8176893318363</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-36.87508673189544,175.81776407526215</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-36.87578918989316,175.81770510141743</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>-36.87647291124181,175.81791343361851</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>-36.87718000930884,175.8180660561887</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>-36.87785133909279,175.81837692830302</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>-36.87851836861488,175.8186624286476</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>-36.879201884335586,175.81890271942405</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>-36.879866675588744,175.81920983280253</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>-36.88052862424744,175.81954244704292</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>-36.88118198061393,175.81988333433333</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>-36.8818576158585,175.8201931855175</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>-36.88248290140709,175.82059103619952</t>
+        </is>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>-36.883111315595706,175.82094600413373</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>-36.883760603136835,175.82135279898128</t>
+        </is>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>-36.88440601414576,175.82175172287174</t>
+        </is>
+      </c>
+      <c r="T411" t="inlineStr">
+        <is>
+          <t>-36.88500300990755,175.82219452550686</t>
+        </is>
+      </c>
+      <c r="U411" t="inlineStr">
+        <is>
+          <t>-36.88560385985271,175.82266742242481</t>
+        </is>
+      </c>
+      <c r="V411" t="inlineStr">
+        <is>
+          <t>-36.88625228730019,175.82309312869026</t>
+        </is>
+      </c>
+      <c r="W411" t="inlineStr">
+        <is>
+          <t>-36.886796063221745,175.8236785149005</t>
+        </is>
+      </c>
+      <c r="X411" t="inlineStr">
+        <is>
+          <t>-36.887333512062675,175.82417560084653</t>
+        </is>
+      </c>
+      <c r="Y411" t="inlineStr">
+        <is>
+          <t>-36.88780696676774,175.82478844483768</t>
+        </is>
+      </c>
+      <c r="Z411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:17+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-36.87312475322173,175.8179619697932</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-36.8737465179648,175.8176587156708</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-36.874404927154195,175.81766229971365</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-36.87509433318868,175.8176461558786</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-36.875790756507264,175.81769416422782</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>-36.87646301787514,175.81796373853751</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>-36.87712422633396,175.8183339786998</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>-36.87847700953008,175.81882292712663</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>-36.8791825782882,175.81897103697267</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>-36.87984784002364,175.81927063545535</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>-36.880496527669,175.81964142229708</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>-36.88115423087617,175.81996220773095</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>-36.88181798254097,175.82030638603703</t>
+        </is>
+      </c>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>-36.88247691740086,175.82060624115113</t>
+        </is>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>-36.88308509668339,175.82100079565527</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>-36.88373587124721,175.8214075128978</t>
+        </is>
+      </c>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>-36.88433606082612,175.82190869780638</t>
+        </is>
+      </c>
+      <c r="T412" t="inlineStr">
+        <is>
+          <t>-36.88499723914308,175.82220532436602</t>
+        </is>
+      </c>
+      <c r="U412" t="inlineStr">
+        <is>
+          <t>-36.885604293088,175.82266665229076</t>
+        </is>
+      </c>
+      <c r="V412" t="inlineStr">
+        <is>
+          <t>-36.886342436187164,175.82291595039356</t>
+        </is>
+      </c>
+      <c r="W412" t="inlineStr"/>
+      <c r="X412" t="inlineStr"/>
+      <c r="Y412" t="inlineStr">
+        <is>
+          <t>-36.88777373874493,175.8248267151073</t>
+        </is>
+      </c>
+      <c r="Z412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-36.87315495533072,175.8180246629616</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-36.87375340273146,175.81768493149386</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-36.874402583676186,175.81757409101752</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-36.87509635036157,175.8176148630294</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-36.87579923710357,175.8176349575017</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-36.87648598658279,175.81784694909283</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-36.87717682301744,175.81808135985588</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-36.87786066202094,175.8183352723456</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>-36.87853849532623,175.8185843243676</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>-36.87921526734341,175.81885536140172</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>-36.87988312832618,175.81915672199568</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>-36.88055136623938,175.81947231804511</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>-36.88121701100617,175.8197837667591</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>-36.88187102324267,175.82015489130697</t>
+        </is>
+      </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>-36.88252316460609,175.82048872997083</t>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>-36.88314729097423,175.82087082368867</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>-36.88378918785119,175.8212895614185</t>
+        </is>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>-36.884439097220074,175.82167748434514</t>
+        </is>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>-36.88507182661866,175.82206574820472</t>
+        </is>
+      </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t>-36.88566507714694,175.82255860027442</t>
+        </is>
+      </c>
+      <c r="V413" t="inlineStr">
+        <is>
+          <t>-36.88631828832749,175.82296341059944</t>
+        </is>
+      </c>
+      <c r="W413" t="inlineStr">
+        <is>
+          <t>-36.88687923268357,175.8235236863261</t>
+        </is>
+      </c>
+      <c r="X413" t="inlineStr">
+        <is>
+          <t>-36.88741787965446,175.8240570968907</t>
+        </is>
+      </c>
+      <c r="Y413" t="inlineStr">
+        <is>
+          <t>-36.88785153726207,175.8247371108405</t>
+        </is>
+      </c>
+      <c r="Z413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-36.873725257245056,175.81757775924754</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-36.874396543076664,175.81734673380052</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-36.875110999433865,175.81738760485547</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-36.87580774379238,175.81757556839403</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-36.87650504964037,175.81775001829342</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-36.87718923485447,175.81802174609481</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>-36.87789406513053,175.8181860226474</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>-36.87857616493281,175.81843814199974</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>-36.87924046013364,175.8187662122567</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>-36.87990956747707,175.81907137400933</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>-36.88059182908955,175.81934754320122</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>-36.88125637359389,175.81967188531533</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>-36.88192220544684,175.8200087041036</t>
+        </is>
+      </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>-36.882581993902996,175.82033924788317</t>
+        </is>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>-36.883212608935885,175.82073432342295</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>-36.88387348901435,175.82110306244346</t>
+        </is>
+      </c>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t>-36.88449600932714,175.82154977300593</t>
+        </is>
+      </c>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>-36.88511794272241,175.82197945047477</t>
+        </is>
+      </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>-36.88573447014836,175.82243524426693</t>
+        </is>
+      </c>
+      <c r="V414" t="inlineStr"/>
+      <c r="W414" t="inlineStr"/>
+      <c r="X414" t="inlineStr"/>
+      <c r="Y414" t="inlineStr"/>
+      <c r="Z414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0181/nzd0181.xlsx
+++ b/data/nzd0181/nzd0181.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z414"/>
+  <dimension ref="A1:Z415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30962,7 +30962,9 @@
           <t>2025-04-20 22:05:49+00:00</t>
         </is>
       </c>
-      <c r="B414" t="inlineStr"/>
+      <c r="B414" t="n">
+        <v>325.3</v>
+      </c>
       <c r="C414" t="n">
         <v>373.78</v>
       </c>
@@ -31027,6 +31029,90 @@
       <c r="Z414" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>356.2911111111111</v>
+      </c>
+      <c r="C415" t="n">
+        <v>383.7333333333333</v>
+      </c>
+      <c r="D415" t="n">
+        <v>375.7547058823529</v>
+      </c>
+      <c r="E415" t="n">
+        <v>384.1955555555555</v>
+      </c>
+      <c r="F415" t="n">
+        <v>373.9226086956522</v>
+      </c>
+      <c r="G415" t="n">
+        <v>368.0126086956522</v>
+      </c>
+      <c r="H415" t="n">
+        <v>380.43</v>
+      </c>
+      <c r="I415" t="n">
+        <v>380.997619047619</v>
+      </c>
+      <c r="J415" t="n">
+        <v>381.4590909090909</v>
+      </c>
+      <c r="K415" t="n">
+        <v>391.4584210526315</v>
+      </c>
+      <c r="L415" t="n">
+        <v>389.2176190476191</v>
+      </c>
+      <c r="M415" t="n">
+        <v>387.2726086956522</v>
+      </c>
+      <c r="N415" t="n">
+        <v>389.7103703703704</v>
+      </c>
+      <c r="O415" t="n">
+        <v>385.8090909090909</v>
+      </c>
+      <c r="P415" t="n">
+        <v>385.72</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>388.0247058823529</v>
+      </c>
+      <c r="R415" t="n">
+        <v>379.3055555555555</v>
+      </c>
+      <c r="S415" t="n">
+        <v>379.5755555555555</v>
+      </c>
+      <c r="T415" t="n">
+        <v>370.6666666666666</v>
+      </c>
+      <c r="U415" t="n">
+        <v>370.0730769230769</v>
+      </c>
+      <c r="V415" t="n">
+        <v>364.4166666666666</v>
+      </c>
+      <c r="W415" t="n">
+        <v>370</v>
+      </c>
+      <c r="X415" t="n">
+        <v>365.9955555555555</v>
+      </c>
+      <c r="Y415" t="n">
+        <v>371.6781818181818</v>
+      </c>
+      <c r="Z415" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -31041,7 +31127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B444"/>
+  <dimension ref="A1:B445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35489,6 +35575,16 @@
       </c>
       <c r="B444" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -35662,28 +35758,28 @@
         <v>0.0485</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7525307547412028</v>
+        <v>0.7196819276650289</v>
       </c>
       <c r="J2" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1401057091394807</v>
+        <v>0.1276969727389199</v>
       </c>
       <c r="M2" t="n">
-        <v>10.25824001508542</v>
+        <v>10.35961454677577</v>
       </c>
       <c r="N2" t="n">
-        <v>187.5564707267461</v>
+        <v>192.2671156467752</v>
       </c>
       <c r="O2" t="n">
-        <v>13.69512580178605</v>
+        <v>13.86604181613395</v>
       </c>
       <c r="P2" t="n">
-        <v>348.204925154756</v>
+        <v>348.5257637905335</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35740,28 +35836,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7600258136145369</v>
+        <v>0.7586826068404938</v>
       </c>
       <c r="J3" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K3" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1870862727340999</v>
+        <v>0.187581643034617</v>
       </c>
       <c r="M3" t="n">
-        <v>9.160349279531159</v>
+        <v>9.137669449294712</v>
       </c>
       <c r="N3" t="n">
-        <v>132.7554739608412</v>
+        <v>132.3451762753973</v>
       </c>
       <c r="O3" t="n">
-        <v>11.52195616902101</v>
+        <v>11.50413735468232</v>
       </c>
       <c r="P3" t="n">
-        <v>366.3985877716262</v>
+        <v>366.4119063421673</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35818,28 +35914,28 @@
         <v>0.0989</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7950563058085943</v>
+        <v>0.7879266795463102</v>
       </c>
       <c r="J4" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K4" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1725243954073765</v>
+        <v>0.1705787212480351</v>
       </c>
       <c r="M4" t="n">
-        <v>9.992738631242764</v>
+        <v>9.996930160967343</v>
       </c>
       <c r="N4" t="n">
-        <v>159.5449656107481</v>
+        <v>159.4415775334779</v>
       </c>
       <c r="O4" t="n">
-        <v>12.63111102044266</v>
+        <v>12.627017760876</v>
       </c>
       <c r="P4" t="n">
-        <v>366.7293691300729</v>
+        <v>366.8001246564377</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35896,28 +35992,28 @@
         <v>0.1092</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6718489319311105</v>
+        <v>0.6698088183970536</v>
       </c>
       <c r="J5" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K5" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1378221854000665</v>
+        <v>0.1378718361794428</v>
       </c>
       <c r="M5" t="n">
-        <v>9.855893912083724</v>
+        <v>9.83601246008819</v>
       </c>
       <c r="N5" t="n">
-        <v>148.4573665705943</v>
+        <v>148.0274520514553</v>
       </c>
       <c r="O5" t="n">
-        <v>12.18430821058768</v>
+        <v>12.16665328064605</v>
       </c>
       <c r="P5" t="n">
-        <v>370.2720478071793</v>
+        <v>370.2923765596461</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35974,28 +36070,28 @@
         <v>0.1499</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6850753952249382</v>
+        <v>0.6767700371574109</v>
       </c>
       <c r="J6" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K6" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1557718521332615</v>
+        <v>0.1528751415913241</v>
       </c>
       <c r="M6" t="n">
-        <v>9.094002110633067</v>
+        <v>9.105840325114125</v>
       </c>
       <c r="N6" t="n">
-        <v>133.3089700288675</v>
+        <v>133.4690571665956</v>
       </c>
       <c r="O6" t="n">
-        <v>11.54595037356681</v>
+        <v>11.55288090333297</v>
       </c>
       <c r="P6" t="n">
-        <v>370.1254284247173</v>
+        <v>370.2087327937949</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36052,28 +36148,28 @@
         <v>0.1673</v>
       </c>
       <c r="I7" t="n">
-        <v>0.778486464858906</v>
+        <v>0.7666333995215685</v>
       </c>
       <c r="J7" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K7" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1748799542238466</v>
+        <v>0.1703977599993247</v>
       </c>
       <c r="M7" t="n">
-        <v>10.04190576405395</v>
+        <v>10.06645987607936</v>
       </c>
       <c r="N7" t="n">
-        <v>150.0331049883193</v>
+        <v>150.6799639567741</v>
       </c>
       <c r="O7" t="n">
-        <v>12.24880014484355</v>
+        <v>12.27517673831111</v>
       </c>
       <c r="P7" t="n">
-        <v>367.2214210156031</v>
+        <v>367.3393457341513</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36130,28 +36226,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.919032702698854</v>
+        <v>0.9147626020689247</v>
       </c>
       <c r="J8" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K8" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2290546627711701</v>
+        <v>0.2284177712998985</v>
       </c>
       <c r="M8" t="n">
-        <v>9.590233868323413</v>
+        <v>9.578884393816772</v>
       </c>
       <c r="N8" t="n">
-        <v>150.7561289814196</v>
+        <v>150.4415468654637</v>
       </c>
       <c r="O8" t="n">
-        <v>12.27827874669001</v>
+        <v>12.2654615431081</v>
       </c>
       <c r="P8" t="n">
-        <v>363.8699380107262</v>
+        <v>363.9120275467766</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36208,28 +36304,28 @@
         <v>0.1342</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7592851132915966</v>
+        <v>0.7549383958681186</v>
       </c>
       <c r="J9" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K9" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1699444561404253</v>
+        <v>0.1691184221608809</v>
       </c>
       <c r="M9" t="n">
-        <v>9.872667027491946</v>
+        <v>9.866257775296463</v>
       </c>
       <c r="N9" t="n">
-        <v>149.7169342476777</v>
+        <v>149.4078187359145</v>
       </c>
       <c r="O9" t="n">
-        <v>12.23588714591948</v>
+        <v>12.22324910716928</v>
       </c>
       <c r="P9" t="n">
-        <v>368.6421647282483</v>
+        <v>368.6851101584382</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36286,28 +36382,28 @@
         <v>0.1389</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5560159152136338</v>
+        <v>0.5519497279724778</v>
       </c>
       <c r="J10" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K10" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1054245786305769</v>
+        <v>0.1045780331257765</v>
       </c>
       <c r="M10" t="n">
-        <v>9.808961555156051</v>
+        <v>9.799577308829706</v>
       </c>
       <c r="N10" t="n">
-        <v>140.7739802279127</v>
+        <v>140.4774228663802</v>
       </c>
       <c r="O10" t="n">
-        <v>11.8648211207718</v>
+        <v>11.85231719396592</v>
       </c>
       <c r="P10" t="n">
-        <v>373.8972780021649</v>
+        <v>373.9370920916127</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36364,28 +36460,28 @@
         <v>0.1207</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4863211200296811</v>
+        <v>0.4876408897142925</v>
       </c>
       <c r="J11" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K11" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08807644752200772</v>
+        <v>0.08904295032429432</v>
       </c>
       <c r="M11" t="n">
-        <v>9.319028839221385</v>
+        <v>9.297543582209961</v>
       </c>
       <c r="N11" t="n">
-        <v>130.0293100615742</v>
+        <v>129.6503616732849</v>
       </c>
       <c r="O11" t="n">
-        <v>11.40303950977871</v>
+        <v>11.38641127279728</v>
       </c>
       <c r="P11" t="n">
-        <v>376.8732101616198</v>
+        <v>376.8602460218627</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36442,28 +36538,28 @@
         <v>0.1306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5218092872867289</v>
+        <v>0.5207799666657352</v>
       </c>
       <c r="J12" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K12" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1145941285520308</v>
+        <v>0.1148617453566012</v>
       </c>
       <c r="M12" t="n">
-        <v>8.577344902525795</v>
+        <v>8.555870962274613</v>
       </c>
       <c r="N12" t="n">
-        <v>110.3477687082486</v>
+        <v>110.0247410927652</v>
       </c>
       <c r="O12" t="n">
-        <v>10.50465462108339</v>
+        <v>10.48926790070523</v>
       </c>
       <c r="P12" t="n">
-        <v>377.5551570048369</v>
+        <v>377.565349421984</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36520,28 +36616,28 @@
         <v>0.1442</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5297491131173006</v>
+        <v>0.5288544557680595</v>
       </c>
       <c r="J13" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K13" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1215686257342901</v>
+        <v>0.1219073750440318</v>
       </c>
       <c r="M13" t="n">
-        <v>8.311887780134043</v>
+        <v>8.29102174902307</v>
       </c>
       <c r="N13" t="n">
-        <v>106.2224119615312</v>
+        <v>105.9144909151148</v>
       </c>
       <c r="O13" t="n">
-        <v>10.30642576073448</v>
+        <v>10.29147661490395</v>
       </c>
       <c r="P13" t="n">
-        <v>375.2035584328212</v>
+        <v>375.2124074433185</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36598,28 +36694,28 @@
         <v>0.1763</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6032686917750262</v>
+        <v>0.6036193741468244</v>
       </c>
       <c r="J14" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K14" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1434382512464923</v>
+        <v>0.1444252220432738</v>
       </c>
       <c r="M14" t="n">
-        <v>8.545597427352243</v>
+        <v>8.521363146170644</v>
       </c>
       <c r="N14" t="n">
-        <v>114.7783805965459</v>
+        <v>114.4283240273257</v>
       </c>
       <c r="O14" t="n">
-        <v>10.71346725372071</v>
+        <v>10.6971175569555</v>
       </c>
       <c r="P14" t="n">
-        <v>373.7310372326155</v>
+        <v>373.7275952051435</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36676,28 +36772,28 @@
         <v>0.1369</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6481671292198542</v>
+        <v>0.6469621579565568</v>
       </c>
       <c r="J15" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K15" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1382837607262333</v>
+        <v>0.1386151934250228</v>
       </c>
       <c r="M15" t="n">
-        <v>9.270257983195632</v>
+        <v>9.248305003306291</v>
       </c>
       <c r="N15" t="n">
-        <v>138.7374939364632</v>
+        <v>138.3374992357637</v>
       </c>
       <c r="O15" t="n">
-        <v>11.77868812459448</v>
+        <v>11.76169627374231</v>
       </c>
       <c r="P15" t="n">
-        <v>371.2358346104744</v>
+        <v>371.2476671097717</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -36754,28 +36850,28 @@
         <v>0.09959999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5699882986243917</v>
+        <v>0.567097288827759</v>
       </c>
       <c r="J16" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K16" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09995156694681262</v>
+        <v>0.09956714514859077</v>
       </c>
       <c r="M16" t="n">
-        <v>9.819439915140736</v>
+        <v>9.804490265013161</v>
       </c>
       <c r="N16" t="n">
-        <v>153.5674218492804</v>
+        <v>153.1875964903338</v>
       </c>
       <c r="O16" t="n">
-        <v>12.39223231904891</v>
+        <v>12.37689769248877</v>
       </c>
       <c r="P16" t="n">
-        <v>376.0382606931003</v>
+        <v>376.0670612726466</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36832,28 +36928,28 @@
         <v>0.1007</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7194155795462727</v>
+        <v>0.7206402859779165</v>
       </c>
       <c r="J17" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K17" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1667264895358019</v>
+        <v>0.1681431883722605</v>
       </c>
       <c r="M17" t="n">
-        <v>9.406898515411399</v>
+        <v>9.384222109507148</v>
       </c>
       <c r="N17" t="n">
-        <v>135.5985160385599</v>
+        <v>135.1991010876598</v>
       </c>
       <c r="O17" t="n">
-        <v>11.64467758413945</v>
+        <v>11.62751482852892</v>
       </c>
       <c r="P17" t="n">
-        <v>367.679187627569</v>
+        <v>367.667123603756</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -36910,28 +37006,28 @@
         <v>0.1087</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5637105882707817</v>
+        <v>0.5635977704369265</v>
       </c>
       <c r="J18" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K18" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L18" t="n">
-        <v>0.125599940125391</v>
+        <v>0.12631028077908</v>
       </c>
       <c r="M18" t="n">
-        <v>8.649665789372602</v>
+        <v>8.624014429485943</v>
       </c>
       <c r="N18" t="n">
-        <v>116.7167719184243</v>
+        <v>116.3631827502461</v>
       </c>
       <c r="O18" t="n">
-        <v>10.8035536708263</v>
+        <v>10.78717677384802</v>
       </c>
       <c r="P18" t="n">
-        <v>365.0775313411379</v>
+        <v>365.0786365814604</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -36988,28 +37084,28 @@
         <v>0.1031</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6713704182195799</v>
+        <v>0.6692882643138391</v>
       </c>
       <c r="J19" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K19" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1567757953940494</v>
+        <v>0.1568883871331462</v>
       </c>
       <c r="M19" t="n">
-        <v>8.927109662036234</v>
+        <v>8.90910620683378</v>
       </c>
       <c r="N19" t="n">
-        <v>126.8950391714989</v>
+        <v>126.5344512445855</v>
       </c>
       <c r="O19" t="n">
-        <v>11.26476982328085</v>
+        <v>11.24875331957215</v>
       </c>
       <c r="P19" t="n">
-        <v>365.6039498847769</v>
+        <v>365.6241755390885</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -37066,28 +37162,28 @@
         <v>0.0854</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7208074399350659</v>
+        <v>0.7133667280079685</v>
       </c>
       <c r="J20" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K20" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1345676019731832</v>
+        <v>0.1327409093172147</v>
       </c>
       <c r="M20" t="n">
-        <v>10.73351136982505</v>
+        <v>10.73645346095235</v>
       </c>
       <c r="N20" t="n">
-        <v>175.9113698585435</v>
+        <v>175.7682394233788</v>
       </c>
       <c r="O20" t="n">
-        <v>13.2631583666389</v>
+        <v>13.25776147859731</v>
       </c>
       <c r="P20" t="n">
-        <v>363.6893035905721</v>
+        <v>363.7614656174201</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -37144,28 +37240,28 @@
         <v>0.075</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6141185356900524</v>
+        <v>0.6104472985055288</v>
       </c>
       <c r="J21" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K21" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1230017437167242</v>
+        <v>0.1224362081599313</v>
       </c>
       <c r="M21" t="n">
-        <v>9.736183203910654</v>
+        <v>9.720041969686893</v>
       </c>
       <c r="N21" t="n">
-        <v>142.2991875632676</v>
+        <v>141.9257543138273</v>
       </c>
       <c r="O21" t="n">
-        <v>11.92892231357333</v>
+        <v>11.91325960070657</v>
       </c>
       <c r="P21" t="n">
-        <v>359.8038512103132</v>
+        <v>359.8397976968582</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -37222,28 +37318,28 @@
         <v>0.0907</v>
       </c>
       <c r="I22" t="n">
-        <v>0.559670451686378</v>
+        <v>0.5531405103617139</v>
       </c>
       <c r="J22" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K22" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09549061039939366</v>
+        <v>0.09386937783431804</v>
       </c>
       <c r="M22" t="n">
-        <v>9.690749089188063</v>
+        <v>9.689224391075587</v>
       </c>
       <c r="N22" t="n">
-        <v>157.0419792679217</v>
+        <v>156.9098863408654</v>
       </c>
       <c r="O22" t="n">
-        <v>12.53163912933666</v>
+        <v>12.52636764352961</v>
       </c>
       <c r="P22" t="n">
-        <v>360.7830800021473</v>
+        <v>360.8470221181391</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -37300,28 +37396,28 @@
         <v>0.0948</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6697439281746393</v>
+        <v>0.6612661955011713</v>
       </c>
       <c r="J23" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K23" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1303319370753446</v>
+        <v>0.1278181572662828</v>
       </c>
       <c r="M23" t="n">
-        <v>9.877255696671273</v>
+        <v>9.885008120233195</v>
       </c>
       <c r="N23" t="n">
-        <v>156.4428815995153</v>
+        <v>156.5392747884357</v>
       </c>
       <c r="O23" t="n">
-        <v>12.50771288443716</v>
+        <v>12.51156564097538</v>
       </c>
       <c r="P23" t="n">
-        <v>366.692700036368</v>
+        <v>366.7764093956384</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -37378,28 +37474,28 @@
         <v>0.1113</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6324577957413625</v>
+        <v>0.6176838509459623</v>
       </c>
       <c r="J24" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K24" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1078186349374812</v>
+        <v>0.1032802547567786</v>
       </c>
       <c r="M24" t="n">
-        <v>10.32653044502329</v>
+        <v>10.35551620282794</v>
       </c>
       <c r="N24" t="n">
-        <v>170.7859896083769</v>
+        <v>171.6971579440112</v>
       </c>
       <c r="O24" t="n">
-        <v>13.06851137690812</v>
+        <v>13.10332621680507</v>
       </c>
       <c r="P24" t="n">
-        <v>371.2789253552027</v>
+        <v>371.4232478677819</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -37456,28 +37552,28 @@
         <v>0.0622</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4257310716232273</v>
+        <v>0.417628811419278</v>
       </c>
       <c r="J25" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K25" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05605129944154608</v>
+        <v>0.0542728867531489</v>
       </c>
       <c r="M25" t="n">
-        <v>9.928533998086269</v>
+        <v>9.930560804602688</v>
       </c>
       <c r="N25" t="n">
-        <v>160.2371219159532</v>
+        <v>160.1944711591374</v>
       </c>
       <c r="O25" t="n">
-        <v>12.65848023721462</v>
+        <v>12.6567954537923</v>
       </c>
       <c r="P25" t="n">
-        <v>372.9850689241038</v>
+        <v>373.0648458497223</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -37515,7 +37611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z414"/>
+  <dimension ref="A1:Z415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83605,7 +83701,11 @@
           <t>2025-04-20 22:05:49+00:00</t>
         </is>
       </c>
-      <c r="B414" t="inlineStr"/>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-36.8729338635462,175.81756572614873</t>
+        </is>
+      </c>
       <c r="C414" t="inlineStr">
         <is>
           <t>-36.873725257245056,175.81757775924754</t>
@@ -83711,6 +83811,138 @@
         </is>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-36.87307742210187,175.8178637206778</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-36.873753113534065,175.81768383028714</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-36.874400626991516,175.81750044315095</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-36.87509714201965,175.8176025818273</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-36.87580645146497,175.81758459074027</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-36.876515036040594,175.81769923981037</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-36.87718418425157,175.8180460040411</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-36.877878392696935,175.81825604936023</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>-36.878559870054346,175.81850137673928</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>-36.87920915398393,175.8188769945619</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>-36.87988787540199,175.8191413980214</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>-36.88056115468073,175.8194421335851</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>-36.88121771900096,175.81978175440818</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>-36.881885775277624,175.8201127564456</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>-36.88254965663565,175.82042141523075</t>
+        </is>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>-36.88314601107912,175.82087349838426</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>-36.883811843570584,175.8212394404035</t>
+        </is>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>-36.88445307521849,175.82164611762167</t>
+        </is>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>-36.88511177284679,175.8219909962645</t>
+        </is>
+      </c>
+      <c r="U415" t="inlineStr">
+        <is>
+          <t>-36.88569280415468,175.82250931159632</t>
+        </is>
+      </c>
+      <c r="V415" t="inlineStr">
+        <is>
+          <t>-36.88633316585325,175.82293417031656</t>
+        </is>
+      </c>
+      <c r="W415" t="inlineStr">
+        <is>
+          <t>-36.886922619928704,175.82344291619586</t>
+        </is>
+      </c>
+      <c r="X415" t="inlineStr">
+        <is>
+          <t>-36.887523383801,175.8239089036363</t>
+        </is>
+      </c>
+      <c r="Y415" t="inlineStr">
+        <is>
+          <t>-36.88797748261166,175.82459205303485</t>
+        </is>
+      </c>
+      <c r="Z415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0181/nzd0181.xlsx
+++ b/data/nzd0181/nzd0181.xlsx
@@ -36125,13 +36125,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0389</v>
+        <v>0.0524</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0485</v>
+        <v>0.0905</v>
       </c>
       <c r="I2" t="n">
         <v>0.6828729147133878</v>
@@ -36203,13 +36203,13 @@
         <v>0.04248242007617214</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0558</v>
+        <v>0.0881</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1274</v>
       </c>
       <c r="I3" t="n">
         <v>0.7396254327308379</v>
@@ -36284,10 +36284,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0726</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0989</v>
+        <v>0.1048</v>
       </c>
       <c r="I4" t="n">
         <v>0.7893974825213123</v>
@@ -36359,13 +36359,13 @@
         <v>0.1294113704269967</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.0882</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1092</v>
+        <v>0.1214</v>
       </c>
       <c r="I5" t="n">
         <v>0.6632740568472625</v>
@@ -36437,13 +36437,13 @@
         <v>0.172976544651345</v>
       </c>
       <c r="F6" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0965</v>
+        <v>0.09</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1499</v>
+        <v>0.1878</v>
       </c>
       <c r="I6" t="n">
         <v>0.6588946638991066</v>
@@ -36515,13 +36515,13 @@
         <v>0.2165583574202241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.115</v>
+        <v>0.14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.1026</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1673</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.7252044685354436</v>
@@ -36593,13 +36593,13 @@
         <v>0.2601431779400695</v>
       </c>
       <c r="F8" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1178</v>
+        <v>0.1022</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.1782</v>
       </c>
       <c r="I8" t="n">
         <v>0.8939141998066154</v>
@@ -36671,13 +36671,13 @@
         <v>0.3036840061355487</v>
       </c>
       <c r="F9" t="n">
-        <v>0.105</v>
+        <v>0.11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0833</v>
+        <v>0.0948</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1342</v>
+        <v>0.1306</v>
       </c>
       <c r="I9" t="n">
         <v>0.73815059146249</v>
@@ -36749,13 +36749,13 @@
         <v>0.3471550935944226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0883</v>
+        <v>0.0737</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1389</v>
+        <v>0.1145</v>
       </c>
       <c r="I10" t="n">
         <v>0.5438323887649921</v>
@@ -36827,13 +36827,13 @@
         <v>0.3907119622003655</v>
       </c>
       <c r="F11" t="n">
-        <v>0.095</v>
+        <v>0.105</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1207</v>
+        <v>0.1301</v>
       </c>
       <c r="I11" t="n">
         <v>0.4827748821878982</v>
@@ -36905,13 +36905,13 @@
         <v>0.4342842115423107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.105</v>
+        <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0848</v>
+        <v>0.0693</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1306</v>
+        <v>0.1</v>
       </c>
       <c r="I12" t="n">
         <v>0.5237194807179664</v>
@@ -36986,10 +36986,10 @@
         <v>0.115</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09429999999999999</v>
+        <v>0.0902</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1442</v>
+        <v>0.1581</v>
       </c>
       <c r="I13" t="n">
         <v>0.5326805112381642</v>
@@ -37061,13 +37061,13 @@
         <v>0.5214612520561451</v>
       </c>
       <c r="F14" t="n">
-        <v>0.135</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1067</v>
+        <v>0.0574</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1763</v>
+        <v>0.0954</v>
       </c>
       <c r="I14" t="n">
         <v>0.6089979387387426</v>
@@ -37139,13 +37139,13 @@
         <v>0.5650029008901827</v>
       </c>
       <c r="F15" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0892</v>
+        <v>0.0556</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1369</v>
+        <v>0.1337</v>
       </c>
       <c r="I15" t="n">
         <v>0.6539344733344038</v>
@@ -37217,13 +37217,13 @@
         <v>0.6085925042080464</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G16" t="n">
-        <v>0.068</v>
+        <v>0.0498</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09959999999999999</v>
+        <v>0.0828</v>
       </c>
       <c r="I16" t="n">
         <v>0.5716720678436954</v>
@@ -37295,13 +37295,13 @@
         <v>0.6520620378439504</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.0798</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1007</v>
+        <v>0.131</v>
       </c>
       <c r="I17" t="n">
         <v>0.7213524160854373</v>
@@ -37373,13 +37373,13 @@
         <v>0.695587301218058</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0798</v>
+        <v>0.0697</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1087</v>
+        <v>0.1084</v>
       </c>
       <c r="I18" t="n">
         <v>0.5682511906629054</v>
@@ -37451,13 +37451,13 @@
         <v>0.739149474181981</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0798</v>
+        <v>0.0764</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1031</v>
+        <v>0.1426</v>
       </c>
       <c r="I19" t="n">
         <v>0.6631944694326446</v>
@@ -37529,13 +37529,13 @@
         <v>0.7826738037062076</v>
       </c>
       <c r="F20" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06519999999999999</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0854</v>
+        <v>0.14</v>
       </c>
       <c r="I20" t="n">
         <v>0.7026385017143351</v>
@@ -37607,13 +37607,13 @@
         <v>0.8261199791508386</v>
       </c>
       <c r="F21" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="G21" t="n">
-        <v>0.056</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0.075</v>
+        <v>0.1301</v>
       </c>
       <c r="I21" t="n">
         <v>0.608899841320144</v>
@@ -37685,13 +37685,13 @@
         <v>0.8697096876955754</v>
       </c>
       <c r="F22" t="n">
-        <v>0.075</v>
+        <v>0.05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0654</v>
+        <v>0.0358</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0907</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="I22" t="n">
         <v>0.5486920480207662</v>
@@ -37766,10 +37766,10 @@
         <v>0.08</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0658</v>
+        <v>0.0521</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0948</v>
+        <v>0.1848</v>
       </c>
       <c r="I23" t="n">
         <v>0.6452328185029953</v>
@@ -37841,13 +37841,13 @@
         <v>0.9566107803193312</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09</v>
+        <v>0.075</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.0595</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1113</v>
+        <v>0.1089</v>
       </c>
       <c r="I24" t="n">
         <v>0.5913559862406523</v>
@@ -37919,13 +37919,13 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0461</v>
+        <v>0.0409</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0622</v>
+        <v>0.0569</v>
       </c>
       <c r="I25" t="n">
         <v>0.4024576146299368</v>
